--- a/Documents/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Documents/8.2.ProjectTestCaseSprint2.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\GitHub\WTVVQLHS1995\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06352F81-75D6-4864-BAF3-12A365138703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trường hợp Kiểm thử" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Tra cứu" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Xem chi tiết văn bản pháp luật" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Quản lý hồ sơ pháp lý" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Quản lý hợp đồng người dùng" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="AI soạn thảo văn bản pháp luật" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Nghiên cứu và so sánh VBPL" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Tính toán chi phí" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Thống kê chi phí và lập báocáo" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Thanh toán dịch vụ" sheetId="10" r:id="rId13"/>
+    <sheet name="Trường hợp Kiểm thử" sheetId="1" r:id="rId1"/>
+    <sheet name="Tra cứu" sheetId="2" r:id="rId2"/>
+    <sheet name="Xem chi tiết văn bản pháp luật" sheetId="3" r:id="rId3"/>
+    <sheet name="Quản lý hồ sơ pháp lý" sheetId="4" r:id="rId4"/>
+    <sheet name="Quản lý hợp đồng người dùng" sheetId="5" r:id="rId5"/>
+    <sheet name="AI soạn thảo văn bản pháp lý" sheetId="6" r:id="rId6"/>
+    <sheet name="Nghiên cứu và so sánh VBPL" sheetId="7" r:id="rId7"/>
+    <sheet name="Tính toán chi phí" sheetId="8" r:id="rId8"/>
+    <sheet name="Thống kê chi phí và lập báocáo" sheetId="9" r:id="rId9"/>
+    <sheet name="Thanh toán dịch vụ" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="JHIZrZcMJmsLN5XYVjcWG2bWIa3Yko859Jray7viYDU="/>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="271">
   <si>
     <t>Project Test Case Sprint 2</t>
   </si>
@@ -76,9 +85,6 @@
   </si>
   <si>
     <t>AI soạn thảo văn bản pháp luật.</t>
-  </si>
-  <si>
-    <t>AI soạn thảo văn bản pháp luật</t>
   </si>
   <si>
     <t>Thịnh</t>
@@ -644,71 +650,335 @@
   <si>
     <t>Hiển thị lỗi đúng định dạng</t>
   </si>
+  <si>
+    <t>Thanh toán khi luật sư chưa thêm ngân hàng</t>
+  </si>
+  <si>
+    <t>Thanh toán khi luật sư đã thêm ngân hàng</t>
+  </si>
+  <si>
+    <t>1.Vào phí và thanh toán
+2. Chọn thanh toán</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Luật sư chưa thêm ngân hàng"</t>
+  </si>
+  <si>
+    <t>Vào giao diện thanh toán</t>
+  </si>
+  <si>
+    <t>Luật sư xem chi tiết thanh toán đã được tạo</t>
+  </si>
+  <si>
+    <t>1. Vào bảng điều khiển Luật sư
+2. vào Giao dịch
+3. vào Danh sách giao dịch
+4. Nhấn vào con mắt ở hành động</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết về giao dịch</t>
+  </si>
+  <si>
+    <t>Luật sư xác nhận thanh toán</t>
+  </si>
+  <si>
+    <t>1. Vào bảng điều khiển Luật sư
+2. Vào Giao dịch
+3. Vào Danh sách giao dịch
+4. Nhấn vào tích vào V xanh ở hành động
+5. Chọn Xác nhân</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Thanh toán thành công"</t>
+  </si>
+  <si>
+    <t>Trạng thái giao dịch sau khi luật sư xác nhận thành công</t>
+  </si>
+  <si>
+    <t>Luật sư xác nhận thanh toán thành công</t>
+  </si>
+  <si>
+    <t>Trạng thái chuyển từ Đang chờ xác nhận thành Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>Luật sư thêm mới tài khoản ngân hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Chọn Giao dịch
+2. Chọn Tài khoản ngân hàng
+3. Thêm mới tài khoản ngân hàng
+4. Chọn thêm mới tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm mới tài khoản thành công và hiển thị thông báo"Thêm mới thành công" </t>
+  </si>
+  <si>
+    <t>Luật sư chỉnh sửa thông tin ngân hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Chọn Giao dịch
+2. Chọn Tài khoản ngân hàng
+3. Chọn chỉnh sửa ở tài khoản ngân hàng
+4. Chọn Cập nhật tài khoản</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công và hiển thị thông báo "Cập nhật thành công"</t>
+  </si>
+  <si>
+    <t>Luật sư xóa thông tin ngân hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Chọn Giao dịch
+2. Chọn Tài khoản ngân hàng
+3. Chọn xóa ở tài khoản ngân hàng
+4. Chọn xóa</t>
+  </si>
+  <si>
+    <t>Tài khoản cần xóa đã được xóa khỏi danh sách và hiển thị thông báo "Xóa thành công"</t>
+  </si>
+  <si>
+    <t>Luật sư chuyển đổi tài khoản ngân hàng mặc định</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Chọn Giao dịch
+2. Chọn Tài khoản ngân hàng
+3. Chọn chỉnh sửa ở tài khoản ngân hàng
+4. Tích v vào ô đặt tài khoản làm mặc định
+5. Chọn Cập nhật tài khoản</t>
+  </si>
+  <si>
+    <t>Ở giao diện Phí và thanh toán của người dùng được chuyển sang tài khoản mới vừa được đặt làm mặc định</t>
+  </si>
+  <si>
+    <t>AI soạn thảo văn bản pháp lý</t>
+  </si>
+  <si>
+    <t>Chọn mẫu văn bản và nhập yêu cầu soạn thảo</t>
+  </si>
+  <si>
+    <t>Chọn mẫu "Đơn khởi kiện" → Nhập yêu cầu → Click "Tạo bản nháp"</t>
+  </si>
+  <si>
+    <t>Văn bản pháp lý được sinh ra dưới dạng nháp</t>
+  </si>
+  <si>
+    <t>Không chọn mẫu văn bản</t>
+  </si>
+  <si>
+    <t>Để trống trường "Chọn mẫu văn bản" → Click "Tạo bản nháp"</t>
+  </si>
+  <si>
+    <t>Không nhập yêu cầu soạn thảo</t>
+  </si>
+  <si>
+    <t>Chọn mẫu văn bản nhưng để trống yêu cầu → Click "Tạo bản nháp"</t>
+  </si>
+  <si>
+    <t>Sử dụng AI để soạn thảo văn bản hợp đồng dân sự</t>
+  </si>
+  <si>
+    <t>Chọn mẫu "Hợp đồng dân sự" → Nhập yêu cầu cụ thể → Tạo bản nháp</t>
+  </si>
+  <si>
+    <t>Hệ thống sinh bản nháp đầy đủ theo yêu cầu</t>
+  </si>
+  <si>
+    <t>Nhập yêu cầu vượt quá 500 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập nội dung rất dài vào trường yêu cầu</t>
+  </si>
+  <si>
+    <t>Soạn văn bản với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Nhập yêu cầu chứa ký tự đặc biệt (!@#$%^...) → Tạo bản nháp</t>
+  </si>
+  <si>
+    <t>Văn bản vẫn sinh ra bình thường, không lỗi</t>
+  </si>
+  <si>
+    <t>Lưu vụ án sau khi tạo bản nháp</t>
+  </si>
+  <si>
+    <t>Điền đủ thông tin → Tạo bản nháp → Click “Lưu vụ án với bản nháp AI”</t>
+  </si>
+  <si>
+    <t>Dữ liệu được lưu, chuyển về danh sách vụ án</t>
+  </si>
+  <si>
+    <t>Click “Hủy” khi chưa nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>Click nút “Hủy” khi form chưa có dữ liệu gì</t>
+  </si>
+  <si>
+    <t>Trở về trang danh sách, không lưu gì</t>
+  </si>
+  <si>
+    <t>Click “Hủy” sau khi nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>Nhập dữ liệu → Click “Hủy”</t>
+  </si>
+  <si>
+    <t>Hiển thị cảnh báo “Bạn có chắc muốn thoát?”</t>
+  </si>
+  <si>
+    <t>Sử dụng nút quay lại danh sách</t>
+  </si>
+  <si>
+    <t>Click “Quay lại danh sách”</t>
+  </si>
+  <si>
+    <t>Chuyển hướng về trang danh sách vụ án</t>
+  </si>
+  <si>
+    <t>Không chọn bất kỳ thông tin nào và tạo nháp</t>
+  </si>
+  <si>
+    <t>Để trống toàn bộ → Click “Tạo bản nháp”</t>
+  </si>
+  <si>
+    <t>Hiển thị lỗi yêu cầu nhập đầy đủ</t>
+  </si>
+  <si>
+    <t>Chọn loại vụ án nhưng không chọn mẫu văn bản</t>
+  </si>
+  <si>
+    <t>Chỉ chọn loại vụ án → Click “Tạo bản nháp”</t>
+  </si>
+  <si>
+    <t>Báo lỗi thiếu mẫu văn bản</t>
+  </si>
+  <si>
+    <t>Chọn mẫu “Biên bản hòa giải” và yêu cầu cụ thể</t>
+  </si>
+  <si>
+    <t>Nhập: “Soạn biên bản hòa giải tranh chấp đất đai”</t>
+  </si>
+  <si>
+    <t>Văn bản sinh ra đúng nội dung yêu cầu</t>
+  </si>
+  <si>
+    <t>Nhập yêu cầu bằng tiếng Anh</t>
+  </si>
+  <si>
+    <t>“Draft a legal complaint about unpaid invoices”</t>
+  </si>
+  <si>
+    <t>Hiển thị cảnh báo "Vui lòng nhập đầy đủ thông tin: Văn bản mẫu"</t>
+  </si>
+  <si>
+    <t>Hiển thị cảnh báo "Vui lòng nhập đầy đủ thông tin: Yêu cầu soạn thảo"</t>
+  </si>
+  <si>
+    <t>Tạo thành công với yêu cầu không giới hạn ký tự</t>
+  </si>
+  <si>
+    <t>Không có bất kỳ hiển thị nào, trực tiếp trở về trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống phản hồi bằng tiếng Việt </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -716,7 +986,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -737,8 +1007,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
-    <border/>
+  <borders count="24">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF333333"/>
@@ -752,27 +1028,34 @@
       <bottom style="medium">
         <color rgb="FF333333"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF333333"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF333333"/>
       </top>
       <bottom style="medium">
         <color rgb="FF333333"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF333333"/>
       </top>
       <bottom style="medium">
         <color rgb="FF333333"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF333333"/>
       </right>
@@ -782,6 +1065,7 @@
       <bottom style="medium">
         <color rgb="FF333333"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -796,6 +1080,7 @@
       <bottom style="medium">
         <color rgb="FF333333"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -810,6 +1095,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -824,6 +1110,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -838,6 +1125,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -852,6 +1140,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -866,27 +1155,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -896,6 +1192,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -907,6 +1204,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -915,6 +1214,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -923,9 +1225,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -940,6 +1244,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -951,6 +1256,8 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -965,194 +1272,246 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1342,192 +1701,194 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="48.88"/>
-    <col customWidth="1" min="3" max="3" width="41.0"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
-    <col customWidth="1" min="5" max="5" width="18.25"/>
-    <col customWidth="1" min="6" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="66.0" customHeight="1">
+    <row r="2" spans="1:5" ht="66" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="17" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="17" t="s">
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2516,232 +2877,442 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="Tra cứu" location="'Tra cứu'!A1" ref="C4"/>
-    <hyperlink display="Xem chi tiết văn bản pháp luật" location="'Xem chi tiết văn bản pháp luật'!A1" ref="C5"/>
-    <hyperlink display="Quản lý hồ sơ pháp lý" location="'Quản lý hồ sơ pháp lý'!A1" ref="C6"/>
-    <hyperlink display="Quản lý hợp đồng người dùng" location="'Quản lý hợp đồng người dùng'!A1" ref="C7"/>
-    <hyperlink display="AI soạn thảo văn bản pháp luật" location="'AI soạn thảo văn bản pháp luật'!A1" ref="C8"/>
-    <hyperlink display="Nghiên cứu và so sánh văn bản pháp luật" location="'Nghiên cứu và so sánh VBPL'!A1" ref="C9"/>
-    <hyperlink display="Tính toán chi phí" location="'Tính toán chi phí'!A1" ref="C10"/>
-    <hyperlink display="Thống kê chi phí và lập báo cáo" location="'Thống kê chi phí và lập báocáo'!A1" ref="C11"/>
-    <hyperlink display="Thanh toán dịch vụ" location="'Thanh toán dịch vụ'!A1" ref="C12"/>
+    <hyperlink ref="C4" location="'Tra cứu'!A1" display="Tra cứu" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" location="'Xem chi tiết văn bản pháp luật'!A1" display="Xem chi tiết văn bản pháp luật" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" location="'Quản lý hồ sơ pháp lý'!A1" display="Quản lý hồ sơ pháp lý" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" location="'Quản lý hợp đồng người dùng'!A1" display="Quản lý hợp đồng người dùng" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" location="'AI soạn thảo văn bản pháp lý'!A1" display="AI soạn thảo văn bản pháp lý" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" location="'Nghiên cứu và so sánh VBPL'!A1" display="Nghiên cứu và so sánh văn bản pháp luật" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" location="'Tính toán chi phí'!A1" display="Tính toán chi phí" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" location="'Thống kê chi phí và lập báocáo'!A1" display="Thống kê chi phí và lập báo cáo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" location="'Thanh toán dịch vụ'!A1" display="Thanh toán dịch vụ" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="B35" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" ht="83.25" thickBot="1">
+      <c r="A37" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:12" ht="99.75" thickBot="1">
+      <c r="A38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A39" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:12" ht="83.25" thickBot="1">
+      <c r="A40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="1:12" ht="83.25" thickBot="1">
+      <c r="A41" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="1:12" ht="83.25" thickBot="1">
+      <c r="A42" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A43" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3696,234 +4267,231 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -4878,657 +5446,653 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="35.75"/>
-    <col customWidth="1" min="4" max="4" width="34.75"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="39" t="s">
+      <c r="G34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="H34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="I34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="40" t="s">
+      <c r="B35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="C35" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="D35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="40" t="s">
+      <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="C36" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="D36" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="40" t="s">
+      <c r="B37" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="C37" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A38" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="40" t="s">
+      <c r="B38" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="C38" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="D38" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="40" t="s">
+      <c r="B39" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="C39" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="D39" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="40" t="s">
+      <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="C40" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="D40" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A41" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="40" t="s">
+      <c r="B41" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="C41" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="D41" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="40" t="s">
+      <c r="B42" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="C42" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="D42" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="B43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="C43" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="D43" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="40" t="s">
+      <c r="B44" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="C44" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="D44" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="40" t="s">
+      <c r="B45" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="C45" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="D45" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A46" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="B46" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="C46" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="D46" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A47" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="40" t="s">
+      <c r="B47" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="C47" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="D47" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A48" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="40" t="s">
+      <c r="B48" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="C48" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="D48" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="40" t="s">
+      <c r="B49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="C49" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="D49" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A50" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="40" t="s">
+      <c r="B50" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="C50" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="D50" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A51" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="40" t="s">
+      <c r="B51" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="C51" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="D51" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A52" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="B52" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="C52" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="D52" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A53" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="B53" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="C53" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="D53" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A54" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="40" t="s">
+      <c r="B54" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="C54" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="D54" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -6467,234 +7031,230 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -7649,898 +8209,2397 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L986"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="26" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="19">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A52" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A53" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A54" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A55" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A56" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A57" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="29">
+        <v>45784</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="11">
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="45.13"/>
-    <col customWidth="1" min="3" max="3" width="30.63"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="7" width="12.75"/>
-    <col customWidth="1" min="8" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="C4" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="I34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
+      <c r="A35" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="45" t="s">
+      <c r="B35" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" ht="48" thickBot="1">
+      <c r="A36" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="45" t="s">
+      <c r="G36" s="51"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+    </row>
+    <row r="37" spans="1:12" ht="48" thickBot="1">
+      <c r="A37" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="51"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+    </row>
+    <row r="38" spans="1:12" ht="48" thickBot="1">
+      <c r="A38" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="51"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+    </row>
+    <row r="39" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A39" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+    </row>
+    <row r="40" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
+      <c r="A40" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+    </row>
+    <row r="41" spans="1:12" ht="48" thickBot="1">
+      <c r="A41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+    </row>
+    <row r="42" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A42" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+    </row>
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A43" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H45" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H47" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H50" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H53" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G54" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G56" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H56" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" s="47">
-        <v>45784.0</v>
-      </c>
-      <c r="H57" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-    </row>
+      <c r="G43" s="51"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+    </row>
+    <row r="44" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A44" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+    </row>
+    <row r="45" spans="1:12" ht="33" thickTop="1" thickBot="1">
+      <c r="A45" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="51"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+    </row>
+    <row r="46" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A46" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="51"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+    </row>
+    <row r="47" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A47" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+    </row>
+    <row r="48" spans="1:12" ht="48" customHeight="1" thickBot="1">
+      <c r="A48" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="54"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -9470,236 +11529,244 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -10654,234 +12721,230 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -11836,234 +13899,230 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -13018,1203 +15077,19 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="26.88"/>
-    <col customWidth="1" min="5" max="5" width="26.63"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="26" width="8.63"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Documents/8.2.ProjectTestCaseSprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\GitHub\WTVVQLHS1995\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WTVVQLHS1995\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201F4D9-AFB7-428D-B534-AA83307E4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1414A-8EC7-41ED-A788-035A52A4E3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12186" tabRatio="847" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp Kiểm thử" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="405">
   <si>
     <t>Project Test Case Sprint 2</t>
   </si>
@@ -1307,15 +1307,69 @@
   <si>
     <t>Hiển thị "Không có dữ liệu"</t>
   </si>
+  <si>
+    <t>Phạm Minh Quân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So sánh nội dung khác nhau giữa hai phiên bản </t>
+  </si>
+  <si>
+    <t>1. chọn" văn bản pháp luật"
+2.chọn văn bản cần so sánh "hôn nhân"
+3.kéo xuống cuối chọn chức năng "so sánh"
+4.chọn "so sánh với phiên bản trước"</t>
+  </si>
+  <si>
+    <t>1. chọn" văn bản pháp luật"
+2.chọn văn bản cần so sánh" hôn nhân"
+3.kéo xuống cuối chọn chức năng "so sánh"
+4.chọn "so sánh với phiên bản trước"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị so sánh phiên bản hiện tại với phiên bản trước. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn bản không có phiên bản trước </t>
+  </si>
+  <si>
+    <t>Hiển thị các phần khác nhau giữa các phiên bản, nội dung thêm mới, nội dung sửa đổi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị rõ ràng nội dung khác nhau giữa hai phiên bản pháp luật </t>
+  </si>
+  <si>
+    <t>Hiển thị các phần khác nhau giữa các phiên bản, phần thêm mới, phần sửa đổi, phần đã xóa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So sánh với phiên bản pháp luật với nội dung khác cái đã chọn </t>
+  </si>
+  <si>
+    <t>1. chọn" văn bản pháp luật"
+2.chọn văn bản cần so sánh" Quyết định 546/QĐ-BXD năm 2025 sửa đổi Mã định danh điện tử của các cơ quan, đơn vị thuộc Bộ Xây dựng"
+3.kéo xuống cuối chọn chức năng "so sánh"
+4.chọn "so sánh với phiên bản trước"</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung so sánh với "Quyết định 1251/QĐ-BCT phê duyệt khung giá phát điện nhà máy điện chất thải năm 2025 do Bộ trưởng Bộ Công Thương ban hành"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo không có nội dung với văn bản trước.</t>
+  </si>
+  <si>
+    <t>FASE</t>
+  </si>
+  <si>
+    <t>Hiển thị so sánh nhanh, tóm tắt thay đổi.</t>
+  </si>
+  <si>
+    <t>Hiển thị tóm tắt thay đổi, thông báo phần trăm giống nhau, giữa bản mới và bản cũ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1405,6 +1459,32 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1823,7 +1903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,7 +1987,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1946,30 +2026,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,6 +2052,114 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2272,6 +2436,55 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1299883</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16935</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25404647-17F6-9278-C2DC-702F67109CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1299883" y="1657739"/>
+          <a:ext cx="9046384" cy="4523412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2577,17 +2790,17 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.87890625" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="26" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.87890625" customWidth="1"/>
+    <col min="5" max="5" width="18.29296875" customWidth="1"/>
+    <col min="6" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
@@ -2599,14 +2812,14 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.350000000000001">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2623,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.350000000000001">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2638,7 +2851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.350000000000001">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.350000000000001">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2668,7 +2881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.350000000000001">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2683,7 +2896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.350000000000001">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2698,7 +2911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.350000000000001">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2713,7 +2926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.350000000000001">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2728,7 +2941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.350000000000001">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2743,7 +2956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.350000000000001">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3762,45 +3975,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="32.1171875" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="7" width="15.87890625" customWidth="1"/>
+    <col min="8" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -3820,7 +4033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3840,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3870,57 +4083,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -3939,9 +4152,9 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
-    </row>
-    <row r="35" spans="1:12" ht="33.75" thickBot="1">
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:12" ht="33" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
@@ -3971,7 +4184,7 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="33.75" thickBot="1">
+    <row r="36" spans="1:12" ht="33" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>48</v>
       </c>
@@ -4001,7 +4214,7 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="83.25" thickBot="1">
+    <row r="37" spans="1:12" ht="65.7" thickBot="1">
       <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
@@ -4031,7 +4244,7 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="99.75" thickBot="1">
+    <row r="38" spans="1:12" ht="98.35" thickBot="1">
       <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
@@ -4061,7 +4274,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="50.25" thickBot="1">
+    <row r="39" spans="1:12" ht="49.35" thickBot="1">
       <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
@@ -4091,7 +4304,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="83.25" thickBot="1">
+    <row r="40" spans="1:12" ht="65.7" thickBot="1">
       <c r="A40" s="22" t="s">
         <v>60</v>
       </c>
@@ -4121,7 +4334,7 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="83.25" thickBot="1">
+    <row r="41" spans="1:12" ht="82" thickBot="1">
       <c r="A41" s="22" t="s">
         <v>63</v>
       </c>
@@ -4151,7 +4364,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" ht="83.25" thickBot="1">
+    <row r="42" spans="1:12" ht="82" thickBot="1">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
@@ -4181,7 +4394,7 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" ht="116.25" thickBot="1">
+    <row r="43" spans="1:12" ht="114.7" thickBot="1">
       <c r="A43" s="22" t="s">
         <v>68</v>
       </c>
@@ -5268,17 +5481,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5291,45 +5504,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="26.703125" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="7" width="13.1171875" customWidth="1"/>
+    <col min="8" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="18">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.7">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -5349,7 +5562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -5369,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -5399,57 +5612,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -5468,31 +5681,31 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="29">
         <v>45784</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I35" s="25"/>
@@ -5500,29 +5713,29 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="33.75" thickBot="1">
+    <row r="36" spans="1:12" ht="33" thickBot="1">
       <c r="A36" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G36" s="29">
         <v>45784</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="H36" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="25"/>
@@ -5530,29 +5743,29 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="33.75" thickBot="1">
+    <row r="37" spans="1:12" ht="33" thickBot="1">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="29">
         <v>45784</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I37" s="25"/>
@@ -5560,29 +5773,29 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="50.25" thickBot="1">
+    <row r="38" spans="1:12" ht="49.35" thickBot="1">
       <c r="A38" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="29">
         <v>45784</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I38" s="25"/>
@@ -5590,29 +5803,29 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="33.75" thickBot="1">
+    <row r="39" spans="1:12" ht="33" thickBot="1">
       <c r="A39" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G39" s="29">
         <v>45784</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I39" s="25"/>
@@ -5620,29 +5833,29 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="33.75" thickBot="1">
+    <row r="40" spans="1:12" ht="33" thickBot="1">
       <c r="A40" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="29">
         <v>45784</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="25"/>
@@ -5650,29 +5863,29 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" thickBot="1">
+    <row r="41" spans="1:12" ht="33" thickBot="1">
       <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G41" s="29">
         <v>45784</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="25"/>
@@ -5680,29 +5893,29 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" ht="50.25" thickBot="1">
+    <row r="42" spans="1:12" ht="49.35" thickBot="1">
       <c r="A42" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G42" s="29">
         <v>45784</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H42" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="25"/>
@@ -5710,29 +5923,29 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" ht="33.75" thickBot="1">
+    <row r="43" spans="1:12" ht="33" thickBot="1">
       <c r="A43" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G43" s="29">
         <v>45784</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I43" s="25"/>
@@ -5740,29 +5953,29 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" thickBot="1">
+    <row r="44" spans="1:12" ht="33" thickBot="1">
       <c r="A44" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G44" s="29">
         <v>45784</v>
       </c>
-      <c r="H44" s="60" t="s">
+      <c r="H44" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I44" s="25"/>
@@ -5770,29 +5983,29 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" ht="33.75" thickBot="1">
+    <row r="45" spans="1:12" ht="33" thickBot="1">
       <c r="A45" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G45" s="29">
         <v>45784</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I45" s="25"/>
@@ -5800,29 +6013,29 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" ht="33.75" thickBot="1">
+    <row r="46" spans="1:12" ht="33" thickBot="1">
       <c r="A46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="29">
         <v>45784</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="25"/>
@@ -5830,29 +6043,29 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" ht="33.75" thickBot="1">
+    <row r="47" spans="1:12" ht="33" thickBot="1">
       <c r="A47" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="29">
         <v>45784</v>
       </c>
-      <c r="H47" s="60" t="s">
+      <c r="H47" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I47" s="25"/>
@@ -5860,29 +6073,29 @@
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" ht="33.75" thickBot="1">
+    <row r="48" spans="1:12" ht="33" thickBot="1">
       <c r="A48" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G48" s="29">
         <v>45784</v>
       </c>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="25"/>
@@ -5890,29 +6103,29 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" ht="33.75" thickBot="1">
+    <row r="49" spans="1:12" ht="33" thickBot="1">
       <c r="A49" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="D49" s="56" t="s">
+      <c r="D49" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="29">
         <v>45784</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="25"/>
@@ -5920,29 +6133,29 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" ht="33.75" thickBot="1">
+    <row r="50" spans="1:12" ht="33" thickBot="1">
       <c r="A50" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="60" t="s">
+      <c r="F50" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G50" s="29">
         <v>45784</v>
       </c>
-      <c r="H50" s="60" t="s">
+      <c r="H50" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="25"/>
@@ -5950,29 +6163,29 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" ht="33.75" thickBot="1">
+    <row r="51" spans="1:12" ht="33" thickBot="1">
       <c r="A51" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G51" s="29">
         <v>45784</v>
       </c>
-      <c r="H51" s="60" t="s">
+      <c r="H51" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I51" s="25"/>
@@ -5980,29 +6193,29 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" ht="50.25" thickBot="1">
+    <row r="52" spans="1:12" ht="49.35" thickBot="1">
       <c r="A52" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G52" s="29">
         <v>45784</v>
       </c>
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I52" s="25"/>
@@ -6010,29 +6223,29 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" ht="33.75" thickBot="1">
+    <row r="53" spans="1:12" ht="33" thickBot="1">
       <c r="A53" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G53" s="29">
         <v>45784</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I53" s="25"/>
@@ -6040,29 +6253,29 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12" ht="33.75" thickBot="1">
+    <row r="54" spans="1:12" ht="33" thickBot="1">
       <c r="A54" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="56" t="s">
+      <c r="D54" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="E54" s="56" t="s">
+      <c r="E54" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G54" s="29">
         <v>45784</v>
       </c>
-      <c r="H54" s="60" t="s">
+      <c r="H54" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I54" s="25"/>
@@ -7018,17 +7231,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7040,46 +7253,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="35.703125" customWidth="1"/>
+    <col min="4" max="4" width="34.703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="7" width="21.29296875" customWidth="1"/>
+    <col min="8" max="8" width="10.29296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -7099,7 +7312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -7119,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -7149,57 +7362,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="26" t="s">
         <v>42</v>
       </c>
@@ -7218,9 +7431,9 @@
       <c r="K34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
-    </row>
-    <row r="35" spans="1:12" ht="149.25" thickBot="1">
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:12" ht="114.7" thickBot="1">
       <c r="A35" s="27" t="s">
         <v>45</v>
       </c>
@@ -7250,7 +7463,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:12" ht="116.25" thickBot="1">
+    <row r="36" spans="1:12" ht="98.35" thickBot="1">
       <c r="A36" s="27" t="s">
         <v>48</v>
       </c>
@@ -7280,7 +7493,7 @@
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" spans="1:12" ht="165.75" thickBot="1">
+    <row r="37" spans="1:12" ht="131" thickBot="1">
       <c r="A37" s="27" t="s">
         <v>51</v>
       </c>
@@ -7310,7 +7523,7 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
     </row>
-    <row r="38" spans="1:12" ht="116.25" thickBot="1">
+    <row r="38" spans="1:12" ht="98.35" thickBot="1">
       <c r="A38" s="27" t="s">
         <v>54</v>
       </c>
@@ -7340,7 +7553,7 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
     </row>
-    <row r="39" spans="1:12" ht="116.25" thickBot="1">
+    <row r="39" spans="1:12" ht="98.35" thickBot="1">
       <c r="A39" s="27" t="s">
         <v>57</v>
       </c>
@@ -7370,7 +7583,7 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
     </row>
-    <row r="40" spans="1:12" ht="132.75" thickBot="1">
+    <row r="40" spans="1:12" ht="98.35" thickBot="1">
       <c r="A40" s="27" t="s">
         <v>60</v>
       </c>
@@ -7400,7 +7613,7 @@
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
     </row>
-    <row r="41" spans="1:12" ht="99.75" thickBot="1">
+    <row r="41" spans="1:12" ht="82" thickBot="1">
       <c r="A41" s="27" t="s">
         <v>63</v>
       </c>
@@ -7430,7 +7643,7 @@
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
     </row>
-    <row r="42" spans="1:12" ht="116.25" thickBot="1">
+    <row r="42" spans="1:12" ht="82" thickBot="1">
       <c r="A42" s="27" t="s">
         <v>66</v>
       </c>
@@ -7460,7 +7673,7 @@
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
     </row>
-    <row r="43" spans="1:12" ht="149.25" thickBot="1">
+    <row r="43" spans="1:12" ht="114.7" thickBot="1">
       <c r="A43" s="27" t="s">
         <v>68</v>
       </c>
@@ -7490,7 +7703,7 @@
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" spans="1:12" ht="116.25" thickBot="1">
+    <row r="44" spans="1:12" ht="98.35" thickBot="1">
       <c r="A44" s="27" t="s">
         <v>70</v>
       </c>
@@ -7520,7 +7733,7 @@
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="1:12" ht="132.75" thickBot="1">
+    <row r="45" spans="1:12" ht="114.7" thickBot="1">
       <c r="A45" s="27" t="s">
         <v>73</v>
       </c>
@@ -7550,7 +7763,7 @@
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
     </row>
-    <row r="46" spans="1:12" ht="132.75" thickBot="1">
+    <row r="46" spans="1:12" ht="114.7" thickBot="1">
       <c r="A46" s="27" t="s">
         <v>76</v>
       </c>
@@ -7580,7 +7793,7 @@
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
     </row>
-    <row r="47" spans="1:12" ht="116.25" thickBot="1">
+    <row r="47" spans="1:12" ht="98.35" thickBot="1">
       <c r="A47" s="27" t="s">
         <v>79</v>
       </c>
@@ -7610,7 +7823,7 @@
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="1:12" ht="99.75" thickBot="1">
+    <row r="48" spans="1:12" ht="98.35" thickBot="1">
       <c r="A48" s="27" t="s">
         <v>82</v>
       </c>
@@ -7640,7 +7853,7 @@
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="1:12" ht="132.75" thickBot="1">
+    <row r="49" spans="1:12" ht="114.7" thickBot="1">
       <c r="A49" s="27" t="s">
         <v>86</v>
       </c>
@@ -7670,7 +7883,7 @@
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="1:12" ht="165.75" thickBot="1">
+    <row r="50" spans="1:12" ht="131" thickBot="1">
       <c r="A50" s="27" t="s">
         <v>89</v>
       </c>
@@ -7700,7 +7913,7 @@
       <c r="K50" s="27"/>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="1:12" ht="165.75" thickBot="1">
+    <row r="51" spans="1:12" ht="131" thickBot="1">
       <c r="A51" s="27" t="s">
         <v>92</v>
       </c>
@@ -7730,7 +7943,7 @@
       <c r="K51" s="27"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="1:12" ht="116.25" thickBot="1">
+    <row r="52" spans="1:12" ht="98.35" thickBot="1">
       <c r="A52" s="27" t="s">
         <v>95</v>
       </c>
@@ -7760,7 +7973,7 @@
       <c r="K52" s="27"/>
       <c r="L52" s="27"/>
     </row>
-    <row r="53" spans="1:12" ht="83.25" thickBot="1">
+    <row r="53" spans="1:12" ht="82" thickBot="1">
       <c r="A53" s="27" t="s">
         <v>98</v>
       </c>
@@ -8738,17 +8951,17 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8760,44 +8973,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="26.703125" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -8817,7 +9030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -8837,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -8867,57 +9080,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -8936,25 +9149,25 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
-    </row>
-    <row r="35" spans="1:12" ht="34.5" thickTop="1" thickBot="1">
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.35" thickTop="1" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="25"/>
@@ -8964,23 +9177,23 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="33.75" thickBot="1">
+    <row r="36" spans="1:12" ht="33" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G36" s="25"/>
@@ -8990,23 +9203,23 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="33.75" thickBot="1">
+    <row r="37" spans="1:12" ht="33" thickBot="1">
       <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="25"/>
@@ -9016,23 +9229,23 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="33.75" thickBot="1">
+    <row r="38" spans="1:12" ht="33" thickBot="1">
       <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="25"/>
@@ -9042,23 +9255,23 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="33.75" thickBot="1">
+    <row r="39" spans="1:12" ht="33" thickBot="1">
       <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G39" s="25"/>
@@ -9068,23 +9281,23 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="33.75" thickBot="1">
+    <row r="40" spans="1:12" ht="33" thickBot="1">
       <c r="A40" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G40" s="25"/>
@@ -9094,23 +9307,23 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" thickBot="1">
+    <row r="41" spans="1:12" ht="33" thickBot="1">
       <c r="A41" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G41" s="25"/>
@@ -9120,23 +9333,23 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" ht="33.75" thickBot="1">
+    <row r="42" spans="1:12" ht="33" thickBot="1">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="25"/>
@@ -9146,23 +9359,23 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" ht="33.75" thickBot="1">
+    <row r="43" spans="1:12" ht="33" thickBot="1">
       <c r="A43" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G43" s="25"/>
@@ -9172,23 +9385,23 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" thickBot="1">
+    <row r="44" spans="1:12" ht="33" thickBot="1">
       <c r="A44" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G44" s="25"/>
@@ -9198,23 +9411,23 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" ht="33.75" thickBot="1">
+    <row r="45" spans="1:12" ht="33" thickBot="1">
       <c r="A45" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="25"/>
@@ -9224,23 +9437,23 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" ht="33.75" thickBot="1">
+    <row r="46" spans="1:12" ht="33" thickBot="1">
       <c r="A46" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="25"/>
@@ -9250,23 +9463,23 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" ht="50.25" thickBot="1">
+    <row r="47" spans="1:12" ht="33" thickBot="1">
       <c r="A47" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="25"/>
@@ -9276,23 +9489,23 @@
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" ht="33.75" thickBot="1">
+    <row r="48" spans="1:12" ht="33" thickBot="1">
       <c r="A48" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G48" s="25"/>
@@ -9302,23 +9515,23 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" ht="33.75" thickBot="1">
+    <row r="49" spans="1:12" ht="33" thickBot="1">
       <c r="A49" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="25"/>
@@ -9328,23 +9541,23 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" ht="33.75" thickBot="1">
+    <row r="50" spans="1:12" ht="33" thickBot="1">
       <c r="A50" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F50" s="60" t="s">
+      <c r="F50" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G50" s="25"/>
@@ -9354,23 +9567,23 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" ht="50.25" thickBot="1">
+    <row r="51" spans="1:12" ht="49.35" thickBot="1">
       <c r="A51" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G51" s="25"/>
@@ -9380,23 +9593,23 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" ht="33.75" thickBot="1">
+    <row r="52" spans="1:12" ht="33" thickBot="1">
       <c r="A52" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G52" s="25"/>
@@ -10354,17 +10567,17 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10377,45 +10590,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="45.1171875" customWidth="1"/>
+    <col min="3" max="3" width="30.5859375" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="7" width="12.703125" customWidth="1"/>
+    <col min="8" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -10435,7 +10648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -10455,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -10485,57 +10698,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -10554,7 +10767,7 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22" t="s">
@@ -12177,17 +12390,17 @@
     <row r="986" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12199,45 +12412,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="26.703125" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="7" width="14.41015625" customWidth="1"/>
+    <col min="8" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -12257,7 +12470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -12277,7 +12490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -12307,57 +12520,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="26" t="s">
         <v>42</v>
       </c>
@@ -12376,9 +12589,9 @@
       <c r="K34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="46"/>
-    </row>
-    <row r="35" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
+      <c r="L34" s="58"/>
+    </row>
+    <row r="35" spans="1:12" ht="46.7" thickTop="1" thickBot="1">
       <c r="A35" s="31" t="s">
         <v>45</v>
       </c>
@@ -12408,7 +12621,7 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
     </row>
-    <row r="36" spans="1:12" ht="48" thickBot="1">
+    <row r="36" spans="1:12" ht="46.35" thickBot="1">
       <c r="A36" s="35" t="s">
         <v>48</v>
       </c>
@@ -12438,7 +12651,7 @@
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
     </row>
-    <row r="37" spans="1:12" ht="48" thickBot="1">
+    <row r="37" spans="1:12" ht="46.35" thickBot="1">
       <c r="A37" s="35" t="s">
         <v>51</v>
       </c>
@@ -12468,7 +12681,7 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="1:12" ht="48" thickBot="1">
+    <row r="38" spans="1:12" ht="46.35" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>54</v>
       </c>
@@ -12498,7 +12711,7 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
     </row>
-    <row r="39" spans="1:12" ht="32.25" thickBot="1">
+    <row r="39" spans="1:12" ht="31" thickBot="1">
       <c r="A39" s="35" t="s">
         <v>57</v>
       </c>
@@ -12528,7 +12741,7 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
+    <row r="40" spans="1:12" ht="46.7" thickTop="1" thickBot="1">
       <c r="A40" s="31" t="s">
         <v>60</v>
       </c>
@@ -12558,7 +12771,7 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
     </row>
-    <row r="41" spans="1:12" ht="48" thickBot="1">
+    <row r="41" spans="1:12" ht="46.35" thickBot="1">
       <c r="A41" s="35" t="s">
         <v>63</v>
       </c>
@@ -12588,7 +12801,7 @@
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
     </row>
-    <row r="42" spans="1:12" ht="32.25" thickBot="1">
+    <row r="42" spans="1:12" ht="31" thickBot="1">
       <c r="A42" s="35" t="s">
         <v>66</v>
       </c>
@@ -12618,7 +12831,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
     </row>
-    <row r="43" spans="1:12" ht="33.75" thickBot="1">
+    <row r="43" spans="1:12" ht="33" thickBot="1">
       <c r="A43" s="35" t="s">
         <v>68</v>
       </c>
@@ -12648,7 +12861,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="1:12" ht="32.25" thickBot="1">
+    <row r="44" spans="1:12" ht="31" thickBot="1">
       <c r="A44" s="35" t="s">
         <v>70</v>
       </c>
@@ -12678,7 +12891,7 @@
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickTop="1" thickBot="1">
+    <row r="45" spans="1:12" ht="31.35" thickTop="1" thickBot="1">
       <c r="A45" s="31" t="s">
         <v>73</v>
       </c>
@@ -12708,7 +12921,7 @@
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="1:12" ht="32.25" thickBot="1">
+    <row r="46" spans="1:12" ht="31" thickBot="1">
       <c r="A46" s="35" t="s">
         <v>76</v>
       </c>
@@ -12738,7 +12951,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
     </row>
-    <row r="47" spans="1:12" ht="32.25" thickBot="1">
+    <row r="47" spans="1:12" ht="31" thickBot="1">
       <c r="A47" s="35" t="s">
         <v>79</v>
       </c>
@@ -13749,17 +13962,17 @@
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13772,96 +13985,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="45" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.703125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" style="71" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" style="81" customWidth="1"/>
+    <col min="7" max="7" width="8.5859375" style="71" customWidth="1"/>
+    <col min="8" max="8" width="7.52734375" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5859375" style="71" customWidth="1"/>
+    <col min="27" max="16384" width="12.5859375" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="15" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="A2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:6" ht="16.350000000000001">
+      <c r="A4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="78">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="78">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="78">
         <v>0</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="78">
         <v>0</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:6" ht="16.350000000000001">
+      <c r="A5" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="19">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78">
         <v>0</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="78">
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="80">
         <v>0</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="79">
         <v>0</v>
       </c>
     </row>
@@ -13877,57 +14095,1526 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="82" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="84"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="85"/>
+    </row>
+    <row r="35" spans="1:12" ht="114.7" thickBot="1">
+      <c r="A35" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="65"/>
+      <c r="H35" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+    </row>
+    <row r="36" spans="1:12" ht="114.7" thickBot="1">
+      <c r="A36" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="65"/>
+      <c r="H36" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="1:12" ht="180" thickBot="1">
+      <c r="A37" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="G37" s="65"/>
+      <c r="H37" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+    </row>
+    <row r="38" spans="1:12" ht="180" thickBot="1">
+      <c r="A38" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="65"/>
+      <c r="H38" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A39" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A40" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A46" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A47" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A48" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A51" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="26.703125" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="26" width="8.5859375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.350000000000001">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.350000000000001">
+      <c r="A5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -13946,7 +15633,7 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
@@ -14929,63 +16616,63 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="2" max="2" width="28.1171875" customWidth="1"/>
+    <col min="3" max="3" width="26.703125" customWidth="1"/>
+    <col min="4" max="4" width="26.87890625" customWidth="1"/>
+    <col min="5" max="5" width="26.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.5859375" customWidth="1"/>
+    <col min="7" max="26" width="8.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.350000000000001">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -15005,7 +16692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.350000000000001">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -15025,7 +16712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.350000000000001">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -15055,57 +16742,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -15124,7 +16811,7 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="47"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
@@ -16107,1195 +17794,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="46"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="47"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Documents/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Documents/8.2.ProjectTestCaseSprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WTVVQLHS1995\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WTVVQLHS1995\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1414A-8EC7-41ED-A788-035A52A4E3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017FF9E9-DB83-4324-A992-1C29411DDCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12186" tabRatio="847" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp Kiểm thử" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="437">
   <si>
     <t>Project Test Case Sprint 2</t>
   </si>
@@ -1356,13 +1356,122 @@
     <t>Hiển thị thông báo không có nội dung với văn bản trước.</t>
   </si>
   <si>
-    <t>FASE</t>
-  </si>
-  <si>
     <t>Hiển thị so sánh nhanh, tóm tắt thay đổi.</t>
   </si>
   <si>
     <t>Hiển thị tóm tắt thay đổi, thông báo phần trăm giống nhau, giữa bản mới và bản cũ</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang hiển thị đúng tab và thông báo khi chưa có báo cáo nào.</t>
+  </si>
+  <si>
+    <t>Truy cập menu "Thống kê Báo cáo"</t>
+  </si>
+  <si>
+    <t>1. Giao diện hiển thị tab "Người dùng"
+2. Hiển thị thông báo: "Chưa có báo cáo thống kê người dùng"
+3. Có nút Tạo báo cáo</t>
+  </si>
+  <si>
+    <t>Tạo báo cáo nhưng chưa chọn thời gian</t>
+  </si>
+  <si>
+    <t>1. Truy cập menu "Thống kê Báo cáo"
+2. Nhấp "Tạo báo cáo"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo vui lòng chọn thời gian</t>
+  </si>
+  <si>
+    <t>Chọn thời gian nhưng không chọn báo cáo đã lưu</t>
+  </si>
+  <si>
+    <t>1. Truy cập menu "Thống kê Báo cáo"
+2. Nhấp chọn thời gian phù hợp</t>
+  </si>
+  <si>
+    <t>1. Hiển thị thông báo: "Chưa có báo cáo thống kê"
+2. Có nút Tạo báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Chọn các tab báo cáo khác nhau</t>
+  </si>
+  <si>
+    <t>Nhấn vào từng tab “Tài chính”, “Hoạt động”, “Tổng hợp”</t>
+  </si>
+  <si>
+    <t>Dữ liệu hiển thị đúng tương ứng với loại báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Xem báo cáo đã lưu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Chọn 1 báo cáo từ dropdown “Chọn báo cáo đã lưu”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị biểu đồ và dữ liệu đã lưu của báo cáo đó	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo báo cáo </t>
+  </si>
+  <si>
+    <t>1. Truy cập menu "Thống kê Báo cáo"
+2. Chọn thời gian và dropdown
+3. Nhấp "Tạo báo cáo"</t>
+  </si>
+  <si>
+    <t>Hiển thị cho phép chọn folder lưu về máy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Giao diện với dữ liệu lớn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Tạo báo cáo với dữ liệu lớn (vd: &gt; 100 dòng)</t>
+  </si>
+  <si>
+    <t>Biểu đồ hiển thị chính xác, bảng có thể cuộn hoặc phân trang</t>
+  </si>
+  <si>
+    <t>Chưa hiển thị dữ liệu</t>
+  </si>
+  <si>
+    <t>Chọn sai ngày bắt đầu và kết thúc</t>
+  </si>
+  <si>
+    <t>Chọn ngày bắt đầu lớn hơn ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ báo lõi và yêu cầu chọn lại</t>
+  </si>
+  <si>
+    <t>Hệ thống tự động chuyển đổi ngày bắt đầu và ngày kết thúc cho nhau sao cho hợp lệ</t>
+  </si>
+  <si>
+    <t>Xoá báo cáo</t>
+  </si>
+  <si>
+    <t>1. Truy cập menu "Thống kê Báo cáo"
+2. Chọn thời gian và dropdown
+3. Nhấp "Xoá báo cáo"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị modal yêu cầu người dùng chọn "chấp nhận" hoặc "huỷ"</t>
+  </si>
+  <si>
+    <t>Đồng ý xoá báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Truy cập menu "Thống kê Báo cáo"
+2. Chọn thời gian và dropdown
+3. Nhấp "Xoá báo cáo"
+4. Nhấp "Xoá"
+</t>
+  </si>
+  <si>
+    <t>Báo cáo bị xoá</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo báo cá đã được xoá</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,30 +2162,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2092,22 +2177,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2134,18 +2207,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2160,6 +2221,72 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2489,6 +2616,99 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102658</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8121358-D0ED-9AC6-B756-4A14EBC03FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2181226"/>
+          <a:ext cx="6779683" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166408</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07A24B-B0DA-0841-7F64-F5F56CFBC7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845114" y="1767641"/>
+          <a:ext cx="7095004" cy="4765624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>31350</xdr:rowOff>
@@ -2793,14 +3013,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="48.87890625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="16.87890625" customWidth="1"/>
-    <col min="5" max="5" width="18.29296875" customWidth="1"/>
-    <col min="6" max="26" width="8.5859375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
@@ -2812,14 +3032,14 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.350000000000001">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2836,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.350000000000001">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2851,7 +3071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.350000000000001">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2866,7 +3086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.350000000000001">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2881,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.350000000000001">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2896,7 +3116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.350000000000001">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2911,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.350000000000001">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2926,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.350000000000001">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2941,7 +3161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.350000000000001">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2956,7 +3176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.350000000000001">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3975,45 +4195,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
+    <sheetView topLeftCell="A38" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="32.1171875" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="7" width="15.87890625" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -4033,7 +4251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -4053,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -4083,57 +4301,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -4152,9 +4370,9 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
-    </row>
-    <row r="35" spans="1:12" ht="33" thickBot="1">
+      <c r="L34" s="76"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
@@ -4184,7 +4402,7 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>48</v>
       </c>
@@ -4214,7 +4432,7 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="65.7" thickBot="1">
+    <row r="37" spans="1:12" ht="83.25" thickBot="1">
       <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
@@ -4244,7 +4462,7 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="98.35" thickBot="1">
+    <row r="38" spans="1:12" ht="99.75" thickBot="1">
       <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
@@ -4274,7 +4492,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="49.35" thickBot="1">
+    <row r="39" spans="1:12" ht="50.25" thickBot="1">
       <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
@@ -4304,7 +4522,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="65.7" thickBot="1">
+    <row r="40" spans="1:12" ht="83.25" thickBot="1">
       <c r="A40" s="22" t="s">
         <v>60</v>
       </c>
@@ -4334,7 +4552,7 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="82" thickBot="1">
+    <row r="41" spans="1:12" ht="83.25" thickBot="1">
       <c r="A41" s="22" t="s">
         <v>63</v>
       </c>
@@ -4364,7 +4582,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" ht="82" thickBot="1">
+    <row r="42" spans="1:12" ht="83.25" thickBot="1">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
@@ -4394,7 +4612,7 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" ht="114.7" thickBot="1">
+    <row r="43" spans="1:12" ht="116.25" thickBot="1">
       <c r="A43" s="22" t="s">
         <v>68</v>
       </c>
@@ -5481,17 +5699,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5504,45 +5722,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="7" width="13.1171875" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.7">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -5562,7 +5780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -5582,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -5612,57 +5830,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -5681,7 +5899,7 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="1:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="37" t="s">
@@ -5713,7 +5931,7 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="37" t="s">
         <v>48</v>
       </c>
@@ -5743,7 +5961,7 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="33" thickBot="1">
+    <row r="37" spans="1:12" ht="33.75" thickBot="1">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -5773,7 +5991,7 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="49.35" thickBot="1">
+    <row r="38" spans="1:12" ht="50.25" thickBot="1">
       <c r="A38" s="37" t="s">
         <v>54</v>
       </c>
@@ -5803,7 +6021,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="33" thickBot="1">
+    <row r="39" spans="1:12" ht="33.75" thickBot="1">
       <c r="A39" s="37" t="s">
         <v>57</v>
       </c>
@@ -5833,7 +6051,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="33" thickBot="1">
+    <row r="40" spans="1:12" ht="33.75" thickBot="1">
       <c r="A40" s="37" t="s">
         <v>60</v>
       </c>
@@ -5863,7 +6081,7 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="33" thickBot="1">
+    <row r="41" spans="1:12" ht="33.75" thickBot="1">
       <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
@@ -5893,7 +6111,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" ht="49.35" thickBot="1">
+    <row r="42" spans="1:12" ht="50.25" thickBot="1">
       <c r="A42" s="37" t="s">
         <v>66</v>
       </c>
@@ -5923,7 +6141,7 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="37" t="s">
         <v>68</v>
       </c>
@@ -5953,7 +6171,7 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:12" ht="33" thickBot="1">
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="37" t="s">
         <v>70</v>
       </c>
@@ -5983,7 +6201,7 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickBot="1">
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="37" t="s">
         <v>73</v>
       </c>
@@ -6013,7 +6231,7 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" ht="33" thickBot="1">
+    <row r="46" spans="1:12" ht="33.75" thickBot="1">
       <c r="A46" s="37" t="s">
         <v>76</v>
       </c>
@@ -6043,7 +6261,7 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" ht="33" thickBot="1">
+    <row r="47" spans="1:12" ht="33.75" thickBot="1">
       <c r="A47" s="37" t="s">
         <v>79</v>
       </c>
@@ -6073,7 +6291,7 @@
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" ht="33" thickBot="1">
+    <row r="48" spans="1:12" ht="33.75" thickBot="1">
       <c r="A48" s="37" t="s">
         <v>82</v>
       </c>
@@ -6103,7 +6321,7 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" ht="33" thickBot="1">
+    <row r="49" spans="1:12" ht="33.75" thickBot="1">
       <c r="A49" s="37" t="s">
         <v>86</v>
       </c>
@@ -6133,7 +6351,7 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" ht="33" thickBot="1">
+    <row r="50" spans="1:12" ht="33.75" thickBot="1">
       <c r="A50" s="37" t="s">
         <v>89</v>
       </c>
@@ -6163,7 +6381,7 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" ht="33" thickBot="1">
+    <row r="51" spans="1:12" ht="33.75" thickBot="1">
       <c r="A51" s="37" t="s">
         <v>92</v>
       </c>
@@ -6193,7 +6411,7 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" ht="49.35" thickBot="1">
+    <row r="52" spans="1:12" ht="50.25" thickBot="1">
       <c r="A52" s="37" t="s">
         <v>95</v>
       </c>
@@ -6223,7 +6441,7 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" ht="33" thickBot="1">
+    <row r="53" spans="1:12" ht="33.75" thickBot="1">
       <c r="A53" s="37" t="s">
         <v>98</v>
       </c>
@@ -6253,7 +6471,7 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12" ht="33" thickBot="1">
+    <row r="54" spans="1:12" ht="33.75" thickBot="1">
       <c r="A54" s="37" t="s">
         <v>99</v>
       </c>
@@ -7231,17 +7449,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7253,46 +7471,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="35.703125" customWidth="1"/>
-    <col min="4" max="4" width="34.703125" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="7" width="21.29296875" customWidth="1"/>
-    <col min="8" max="8" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -7312,7 +7530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -7332,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -7362,57 +7580,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="26" t="s">
         <v>42</v>
       </c>
@@ -7431,9 +7649,9 @@
       <c r="K34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
-    </row>
-    <row r="35" spans="1:12" ht="114.7" thickBot="1">
+      <c r="L34" s="76"/>
+    </row>
+    <row r="35" spans="1:12" ht="149.25" thickBot="1">
       <c r="A35" s="27" t="s">
         <v>45</v>
       </c>
@@ -7463,7 +7681,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:12" ht="98.35" thickBot="1">
+    <row r="36" spans="1:12" ht="116.25" thickBot="1">
       <c r="A36" s="27" t="s">
         <v>48</v>
       </c>
@@ -7493,7 +7711,7 @@
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" spans="1:12" ht="131" thickBot="1">
+    <row r="37" spans="1:12" ht="165.75" thickBot="1">
       <c r="A37" s="27" t="s">
         <v>51</v>
       </c>
@@ -7523,7 +7741,7 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
     </row>
-    <row r="38" spans="1:12" ht="98.35" thickBot="1">
+    <row r="38" spans="1:12" ht="116.25" thickBot="1">
       <c r="A38" s="27" t="s">
         <v>54</v>
       </c>
@@ -7553,7 +7771,7 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
     </row>
-    <row r="39" spans="1:12" ht="98.35" thickBot="1">
+    <row r="39" spans="1:12" ht="116.25" thickBot="1">
       <c r="A39" s="27" t="s">
         <v>57</v>
       </c>
@@ -7583,7 +7801,7 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
     </row>
-    <row r="40" spans="1:12" ht="98.35" thickBot="1">
+    <row r="40" spans="1:12" ht="132.75" thickBot="1">
       <c r="A40" s="27" t="s">
         <v>60</v>
       </c>
@@ -7613,7 +7831,7 @@
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
     </row>
-    <row r="41" spans="1:12" ht="82" thickBot="1">
+    <row r="41" spans="1:12" ht="99.75" thickBot="1">
       <c r="A41" s="27" t="s">
         <v>63</v>
       </c>
@@ -7643,7 +7861,7 @@
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
     </row>
-    <row r="42" spans="1:12" ht="82" thickBot="1">
+    <row r="42" spans="1:12" ht="116.25" thickBot="1">
       <c r="A42" s="27" t="s">
         <v>66</v>
       </c>
@@ -7673,7 +7891,7 @@
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
     </row>
-    <row r="43" spans="1:12" ht="114.7" thickBot="1">
+    <row r="43" spans="1:12" ht="149.25" thickBot="1">
       <c r="A43" s="27" t="s">
         <v>68</v>
       </c>
@@ -7703,7 +7921,7 @@
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" spans="1:12" ht="98.35" thickBot="1">
+    <row r="44" spans="1:12" ht="116.25" thickBot="1">
       <c r="A44" s="27" t="s">
         <v>70</v>
       </c>
@@ -7733,7 +7951,7 @@
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="1:12" ht="114.7" thickBot="1">
+    <row r="45" spans="1:12" ht="132.75" thickBot="1">
       <c r="A45" s="27" t="s">
         <v>73</v>
       </c>
@@ -7763,7 +7981,7 @@
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
     </row>
-    <row r="46" spans="1:12" ht="114.7" thickBot="1">
+    <row r="46" spans="1:12" ht="132.75" thickBot="1">
       <c r="A46" s="27" t="s">
         <v>76</v>
       </c>
@@ -7793,7 +8011,7 @@
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
     </row>
-    <row r="47" spans="1:12" ht="98.35" thickBot="1">
+    <row r="47" spans="1:12" ht="116.25" thickBot="1">
       <c r="A47" s="27" t="s">
         <v>79</v>
       </c>
@@ -7823,7 +8041,7 @@
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="1:12" ht="98.35" thickBot="1">
+    <row r="48" spans="1:12" ht="99.75" thickBot="1">
       <c r="A48" s="27" t="s">
         <v>82</v>
       </c>
@@ -7853,7 +8071,7 @@
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="1:12" ht="114.7" thickBot="1">
+    <row r="49" spans="1:12" ht="132.75" thickBot="1">
       <c r="A49" s="27" t="s">
         <v>86</v>
       </c>
@@ -7883,7 +8101,7 @@
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="1:12" ht="131" thickBot="1">
+    <row r="50" spans="1:12" ht="165.75" thickBot="1">
       <c r="A50" s="27" t="s">
         <v>89</v>
       </c>
@@ -7913,7 +8131,7 @@
       <c r="K50" s="27"/>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="1:12" ht="131" thickBot="1">
+    <row r="51" spans="1:12" ht="165.75" thickBot="1">
       <c r="A51" s="27" t="s">
         <v>92</v>
       </c>
@@ -7943,7 +8161,7 @@
       <c r="K51" s="27"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="1:12" ht="98.35" thickBot="1">
+    <row r="52" spans="1:12" ht="116.25" thickBot="1">
       <c r="A52" s="27" t="s">
         <v>95</v>
       </c>
@@ -7973,7 +8191,7 @@
       <c r="K52" s="27"/>
       <c r="L52" s="27"/>
     </row>
-    <row r="53" spans="1:12" ht="82" thickBot="1">
+    <row r="53" spans="1:12" ht="83.25" thickBot="1">
       <c r="A53" s="27" t="s">
         <v>98</v>
       </c>
@@ -8951,17 +9169,17 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8973,44 +9191,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -9030,7 +9248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -9050,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -9080,57 +9298,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -9149,9 +9367,9 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
-    </row>
-    <row r="35" spans="1:12" ht="33.35" thickTop="1" thickBot="1">
+      <c r="L34" s="76"/>
+    </row>
+    <row r="35" spans="1:12" ht="34.5" thickTop="1" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
@@ -9171,13 +9389,15 @@
         <v>105</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="H35" s="23"/>
+      <c r="H35" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>48</v>
       </c>
@@ -9197,13 +9417,15 @@
         <v>105</v>
       </c>
       <c r="G36" s="25"/>
-      <c r="H36" s="23"/>
+      <c r="H36" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="33" thickBot="1">
+    <row r="37" spans="1:12" ht="33.75" thickBot="1">
       <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
@@ -9223,13 +9445,15 @@
         <v>105</v>
       </c>
       <c r="G37" s="25"/>
-      <c r="H37" s="23"/>
+      <c r="H37" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="33" thickBot="1">
+    <row r="38" spans="1:12" ht="33.75" thickBot="1">
       <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
@@ -9249,13 +9473,15 @@
         <v>105</v>
       </c>
       <c r="G38" s="25"/>
-      <c r="H38" s="23"/>
+      <c r="H38" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="33" thickBot="1">
+    <row r="39" spans="1:12" ht="33.75" thickBot="1">
       <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
@@ -9275,13 +9501,15 @@
         <v>134</v>
       </c>
       <c r="G39" s="25"/>
-      <c r="H39" s="23"/>
+      <c r="H39" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="33" thickBot="1">
+    <row r="40" spans="1:12" ht="33.75" thickBot="1">
       <c r="A40" s="22" t="s">
         <v>60</v>
       </c>
@@ -9301,13 +9529,15 @@
         <v>134</v>
       </c>
       <c r="G40" s="25"/>
-      <c r="H40" s="23"/>
+      <c r="H40" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="33" thickBot="1">
+    <row r="41" spans="1:12" ht="33.75" thickBot="1">
       <c r="A41" s="22" t="s">
         <v>63</v>
       </c>
@@ -9327,13 +9557,15 @@
         <v>105</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="H41" s="23"/>
+      <c r="H41" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" ht="33" thickBot="1">
+    <row r="42" spans="1:12" ht="33.75" thickBot="1">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
@@ -9353,13 +9585,15 @@
         <v>105</v>
       </c>
       <c r="G42" s="25"/>
-      <c r="H42" s="23"/>
+      <c r="H42" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="22" t="s">
         <v>68</v>
       </c>
@@ -9379,13 +9613,15 @@
         <v>105</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="H43" s="23"/>
+      <c r="H43" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:12" ht="33" thickBot="1">
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="22" t="s">
         <v>70</v>
       </c>
@@ -9405,13 +9641,15 @@
         <v>105</v>
       </c>
       <c r="G44" s="25"/>
-      <c r="H44" s="23"/>
+      <c r="H44" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickBot="1">
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="22" t="s">
         <v>73</v>
       </c>
@@ -9431,13 +9669,15 @@
         <v>105</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="23"/>
+      <c r="H45" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" ht="33" thickBot="1">
+    <row r="46" spans="1:12" ht="33.75" thickBot="1">
       <c r="A46" s="22" t="s">
         <v>76</v>
       </c>
@@ -9457,13 +9697,15 @@
         <v>105</v>
       </c>
       <c r="G46" s="25"/>
-      <c r="H46" s="23"/>
+      <c r="H46" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" ht="33" thickBot="1">
+    <row r="47" spans="1:12" ht="50.25" thickBot="1">
       <c r="A47" s="22" t="s">
         <v>79</v>
       </c>
@@ -9483,13 +9725,15 @@
         <v>105</v>
       </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="23"/>
+      <c r="H47" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" ht="33" thickBot="1">
+    <row r="48" spans="1:12" ht="33.75" thickBot="1">
       <c r="A48" s="22" t="s">
         <v>82</v>
       </c>
@@ -9509,13 +9753,15 @@
         <v>105</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="23"/>
+      <c r="H48" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" ht="33" thickBot="1">
+    <row r="49" spans="1:12" ht="33.75" thickBot="1">
       <c r="A49" s="22" t="s">
         <v>86</v>
       </c>
@@ -9535,13 +9781,15 @@
         <v>105</v>
       </c>
       <c r="G49" s="25"/>
-      <c r="H49" s="23"/>
+      <c r="H49" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" ht="33" thickBot="1">
+    <row r="50" spans="1:12" ht="33.75" thickBot="1">
       <c r="A50" s="22" t="s">
         <v>89</v>
       </c>
@@ -9561,13 +9809,15 @@
         <v>105</v>
       </c>
       <c r="G50" s="25"/>
-      <c r="H50" s="23"/>
+      <c r="H50" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" ht="49.35" thickBot="1">
+    <row r="51" spans="1:12" ht="50.25" thickBot="1">
       <c r="A51" s="22" t="s">
         <v>92</v>
       </c>
@@ -9587,13 +9837,15 @@
         <v>105</v>
       </c>
       <c r="G51" s="25"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" ht="33" thickBot="1">
+    <row r="52" spans="1:12" ht="33.75" thickBot="1">
       <c r="A52" s="22" t="s">
         <v>95</v>
       </c>
@@ -9613,7 +9865,9 @@
         <v>105</v>
       </c>
       <c r="G52" s="25"/>
-      <c r="H52" s="23"/>
+      <c r="H52" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -10567,17 +10821,17 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10590,45 +10844,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="45.1171875" customWidth="1"/>
-    <col min="3" max="3" width="30.5859375" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="7" width="12.703125" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -10648,7 +10902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -10668,7 +10922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -10698,57 +10952,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -10767,7 +11021,7 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22" t="s">
@@ -12390,17 +12644,17 @@
     <row r="986" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12412,45 +12666,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="7" width="14.41015625" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -12470,7 +12724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -12490,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -12520,57 +12774,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="26" t="s">
         <v>42</v>
       </c>
@@ -12589,9 +12843,9 @@
       <c r="K34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="58"/>
-    </row>
-    <row r="35" spans="1:12" ht="46.7" thickTop="1" thickBot="1">
+      <c r="L34" s="75"/>
+    </row>
+    <row r="35" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
       <c r="A35" s="31" t="s">
         <v>45</v>
       </c>
@@ -12621,7 +12875,7 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
     </row>
-    <row r="36" spans="1:12" ht="46.35" thickBot="1">
+    <row r="36" spans="1:12" ht="48" thickBot="1">
       <c r="A36" s="35" t="s">
         <v>48</v>
       </c>
@@ -12651,7 +12905,7 @@
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
     </row>
-    <row r="37" spans="1:12" ht="46.35" thickBot="1">
+    <row r="37" spans="1:12" ht="48" thickBot="1">
       <c r="A37" s="35" t="s">
         <v>51</v>
       </c>
@@ -12681,7 +12935,7 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="1:12" ht="46.35" thickBot="1">
+    <row r="38" spans="1:12" ht="48" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>54</v>
       </c>
@@ -12711,7 +12965,7 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
     </row>
-    <row r="39" spans="1:12" ht="31" thickBot="1">
+    <row r="39" spans="1:12" ht="32.25" thickBot="1">
       <c r="A39" s="35" t="s">
         <v>57</v>
       </c>
@@ -12741,7 +12995,7 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="1:12" ht="46.7" thickTop="1" thickBot="1">
+    <row r="40" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
       <c r="A40" s="31" t="s">
         <v>60</v>
       </c>
@@ -12771,7 +13025,7 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
     </row>
-    <row r="41" spans="1:12" ht="46.35" thickBot="1">
+    <row r="41" spans="1:12" ht="48" thickBot="1">
       <c r="A41" s="35" t="s">
         <v>63</v>
       </c>
@@ -12801,7 +13055,7 @@
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
     </row>
-    <row r="42" spans="1:12" ht="31" thickBot="1">
+    <row r="42" spans="1:12" ht="32.25" thickBot="1">
       <c r="A42" s="35" t="s">
         <v>66</v>
       </c>
@@ -12831,7 +13085,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="35" t="s">
         <v>68</v>
       </c>
@@ -12861,7 +13115,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="1:12" ht="31" thickBot="1">
+    <row r="44" spans="1:12" ht="32.25" thickBot="1">
       <c r="A44" s="35" t="s">
         <v>70</v>
       </c>
@@ -12891,7 +13145,7 @@
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
     </row>
-    <row r="45" spans="1:12" ht="31.35" thickTop="1" thickBot="1">
+    <row r="45" spans="1:12" ht="33" thickTop="1" thickBot="1">
       <c r="A45" s="31" t="s">
         <v>73</v>
       </c>
@@ -12921,7 +13175,7 @@
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="1:12" ht="31" thickBot="1">
+    <row r="46" spans="1:12" ht="32.25" thickBot="1">
       <c r="A46" s="35" t="s">
         <v>76</v>
       </c>
@@ -12951,7 +13205,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
     </row>
-    <row r="47" spans="1:12" ht="31" thickBot="1">
+    <row r="47" spans="1:12" ht="32.25" thickBot="1">
       <c r="A47" s="35" t="s">
         <v>79</v>
       </c>
@@ -13962,17 +14216,17 @@
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13985,101 +14239,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="45" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="8.5859375" style="71" customWidth="1"/>
-    <col min="8" max="8" width="7.52734375" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.5859375" style="71" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="71"/>
+    <col min="1" max="1" width="18.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="45" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5703125" style="56" customWidth="1"/>
+    <col min="27" max="16384" width="12.5703125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
-      <c r="A2" s="72" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="62">
         <v>0</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="62">
         <v>0</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="62">
         <v>0</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="62">
         <v>0</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="63">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62">
         <v>0</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="62">
         <v>0</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="64">
         <v>0</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14095,30 +14349,30 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="82" t="s">
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="83" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14128,16 +14382,16 @@
       <c r="C33" s="84"/>
       <c r="D33" s="84"/>
       <c r="E33" s="84"/>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="83" t="s">
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
       <c r="L33" s="84"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -14146,344 +14400,344 @@
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
       <c r="E34" s="85"/>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="87" t="s">
+      <c r="I34" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="87" t="s">
+      <c r="J34" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="87" t="s">
+      <c r="K34" s="67" t="s">
         <v>44</v>
       </c>
       <c r="L34" s="85"/>
     </row>
-    <row r="35" spans="1:12" ht="114.7" thickBot="1">
+    <row r="35" spans="1:12" ht="132.75" thickBot="1">
       <c r="A35" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="54" t="s">
         <v>397</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="65"/>
-      <c r="H35" s="64" t="s">
+      <c r="G35" s="53"/>
+      <c r="H35" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-    </row>
-    <row r="36" spans="1:12" ht="114.7" thickBot="1">
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+    </row>
+    <row r="36" spans="1:12" ht="132.75" thickBot="1">
       <c r="A36" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="64" t="s">
+      <c r="F36" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="53"/>
+      <c r="H36" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-    </row>
-    <row r="37" spans="1:12" ht="180" thickBot="1">
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+    </row>
+    <row r="37" spans="1:12" ht="215.25" thickBot="1">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="52" t="s">
         <v>400</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="G37" s="65"/>
-      <c r="H37" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="53"/>
+      <c r="H37" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-    </row>
-    <row r="38" spans="1:12" ht="180" thickBot="1">
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+    </row>
+    <row r="38" spans="1:12" ht="215.25" thickBot="1">
       <c r="A38" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="C38" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>404</v>
+      <c r="E38" s="52" t="s">
+        <v>403</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="64" t="s">
+      <c r="G38" s="53"/>
+      <c r="H38" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="48"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="48"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="48"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="48"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="48"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="48"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="48"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="48"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:12" ht="15.75" customHeight="1"/>
@@ -15436,17 +15690,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15459,42 +15713,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -15514,7 +15768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -15534,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -15564,57 +15818,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -15633,7 +15887,7 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
@@ -16616,17 +16870,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16637,42 +16891,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="94" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="94" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="94" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -16692,38 +16948,38 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="13">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="19">
+      <c r="B5" s="96"/>
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="19">
@@ -16742,57 +16998,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="75"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="76"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
@@ -16811,33 +17067,316 @@
       <c r="K34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="59"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23"/>
+      <c r="L34" s="76"/>
+    </row>
+    <row r="35" spans="1:12" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A35" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="53"/>
+      <c r="H35" s="52" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:12" ht="70.5" customHeight="1" thickBot="1">
+      <c r="A36" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="53"/>
+      <c r="H36" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A37" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="53"/>
+      <c r="H37" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
+      <c r="A38" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="53"/>
+      <c r="H38" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" ht="66" customHeight="1" thickBot="1">
+      <c r="A39" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="53"/>
+      <c r="H39" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:12" ht="129" customHeight="1" thickBot="1">
+      <c r="A40" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="53"/>
+      <c r="H40" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12" ht="91.5" customHeight="1" thickBot="1">
+      <c r="A44" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="53"/>
+      <c r="H44" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+    </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="48" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
@@ -17794,19 +18333,21 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Documents/8.2.ProjectTestCaseSprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WTVVQLHS1995\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\GitHub\WTVVQLHS1995\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017FF9E9-DB83-4324-A992-1C29411DDCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D7106-568D-4961-B902-7F20C7F081DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp Kiểm thử" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,19 @@
     <sheet name="Thống kê chi phí và lập báocáo" sheetId="9" r:id="rId9"/>
     <sheet name="Thanh toán dịch vụ" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="JHIZrZcMJmsLN5XYVjcWG2bWIa3Yko859Jray7viYDU="/>
     </ext>
@@ -84,9 +95,6 @@
     <t>Phúc</t>
   </si>
   <si>
-    <t>AI soạn thảo văn bản pháp luật.</t>
-  </si>
-  <si>
     <t>Thịnh</t>
   </si>
   <si>
@@ -1473,12 +1481,15 @@
   <si>
     <t>Hiển thị thông báo báo cá đã được xoá</t>
   </si>
+  <si>
+    <t>AI soạn thảo văn bản pháp lý.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1594,6 +1605,17 @@
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2012,7 +2034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2089,9 +2111,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2222,21 +2241,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2246,6 +2274,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2253,15 +2290,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2279,14 +2307,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2514,13 +2565,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>521804</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1618421</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>158316</xdr:rowOff>
+      <xdr:rowOff>191446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2549,7 +2600,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="521804" y="1805608"/>
+          <a:off x="521804" y="1838738"/>
           <a:ext cx="7772400" cy="4117404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3010,7 +3061,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3032,11 +3083,11 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -3121,14 +3172,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>204</v>
+        <v>436</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5">
@@ -3136,10 +3187,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13" t="s">
@@ -3151,10 +3202,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="13" t="s">
@@ -3166,10 +3217,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="13" t="s">
@@ -3181,10 +3232,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="13" t="s">
@@ -4211,49 +4262,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>9</v>
@@ -4273,7 +4324,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -4301,97 +4352,97 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="I34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="K34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="1:12" ht="33.75" thickBot="1">
       <c r="A35" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>181</v>
-      </c>
       <c r="E35" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="29">
+        <v>104</v>
+      </c>
+      <c r="G35" s="28">
         <v>45784</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -4404,24 +4455,24 @@
     </row>
     <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="D36" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="29">
+        <v>104</v>
+      </c>
+      <c r="G36" s="28">
         <v>45784</v>
       </c>
       <c r="H36" s="23" t="s">
@@ -4434,24 +4485,24 @@
     </row>
     <row r="37" spans="1:12" ht="83.25" thickBot="1">
       <c r="A37" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="D37" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="E37" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="29">
+        <v>104</v>
+      </c>
+      <c r="G37" s="28">
         <v>45784</v>
       </c>
       <c r="H37" s="23" t="s">
@@ -4464,24 +4515,24 @@
     </row>
     <row r="38" spans="1:12" ht="99.75" thickBot="1">
       <c r="A38" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>188</v>
-      </c>
       <c r="E38" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="29">
+        <v>104</v>
+      </c>
+      <c r="G38" s="28">
         <v>45784</v>
       </c>
       <c r="H38" s="23" t="s">
@@ -4494,24 +4545,24 @@
     </row>
     <row r="39" spans="1:12" ht="50.25" thickBot="1">
       <c r="A39" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="E39" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="29">
+        <v>104</v>
+      </c>
+      <c r="G39" s="28">
         <v>45784</v>
       </c>
       <c r="H39" s="23" t="s">
@@ -4524,24 +4575,24 @@
     </row>
     <row r="40" spans="1:12" ht="83.25" thickBot="1">
       <c r="A40" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="D40" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>194</v>
-      </c>
       <c r="E40" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="29">
+        <v>104</v>
+      </c>
+      <c r="G40" s="28">
         <v>45784</v>
       </c>
       <c r="H40" s="23" t="s">
@@ -4554,24 +4605,24 @@
     </row>
     <row r="41" spans="1:12" ht="83.25" thickBot="1">
       <c r="A41" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="D41" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>197</v>
-      </c>
       <c r="E41" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="29">
+        <v>104</v>
+      </c>
+      <c r="G41" s="28">
         <v>45784</v>
       </c>
       <c r="H41" s="23" t="s">
@@ -4584,24 +4635,24 @@
     </row>
     <row r="42" spans="1:12" ht="83.25" thickBot="1">
       <c r="A42" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="D42" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>200</v>
-      </c>
       <c r="E42" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="29">
+        <v>104</v>
+      </c>
+      <c r="G42" s="28">
         <v>45784</v>
       </c>
       <c r="H42" s="23" t="s">
@@ -4614,24 +4665,24 @@
     </row>
     <row r="43" spans="1:12" ht="116.25" thickBot="1">
       <c r="A43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="D43" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="E43" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="29">
+        <v>104</v>
+      </c>
+      <c r="G43" s="28">
         <v>45784</v>
       </c>
       <c r="H43" s="23" t="s">
@@ -4643,7 +4694,7 @@
       <c r="L43" s="25"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G44" s="29">
+      <c r="G44" s="28">
         <v>45784</v>
       </c>
       <c r="H44" s="23" t="s">
@@ -4651,7 +4702,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G45" s="29">
+      <c r="G45" s="28">
         <v>45784</v>
       </c>
       <c r="H45" s="23" t="s">
@@ -4659,7 +4710,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G46" s="29">
+      <c r="G46" s="28">
         <v>45784</v>
       </c>
       <c r="H46" s="23" t="s">
@@ -4667,7 +4718,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G47" s="29">
+      <c r="G47" s="28">
         <v>45784</v>
       </c>
       <c r="H47" s="23" t="s">
@@ -4675,7 +4726,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G48" s="29">
+      <c r="G48" s="28">
         <v>45784</v>
       </c>
       <c r="H48" s="23" t="s">
@@ -4683,7 +4734,7 @@
       </c>
     </row>
     <row r="49" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G49" s="29">
+      <c r="G49" s="28">
         <v>45784</v>
       </c>
       <c r="H49" s="23" t="s">
@@ -4691,7 +4742,7 @@
       </c>
     </row>
     <row r="50" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G50" s="29">
+      <c r="G50" s="28">
         <v>45784</v>
       </c>
       <c r="H50" s="23" t="s">
@@ -4699,7 +4750,7 @@
       </c>
     </row>
     <row r="51" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G51" s="29">
+      <c r="G51" s="28">
         <v>45784</v>
       </c>
       <c r="H51" s="23" t="s">
@@ -4707,7 +4758,7 @@
       </c>
     </row>
     <row r="52" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G52" s="29">
+      <c r="G52" s="28">
         <v>45784</v>
       </c>
       <c r="H52" s="23" t="s">
@@ -4715,7 +4766,7 @@
       </c>
     </row>
     <row r="53" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G53" s="29">
+      <c r="G53" s="28">
         <v>45784</v>
       </c>
       <c r="H53" s="23" t="s">
@@ -4723,7 +4774,7 @@
       </c>
     </row>
     <row r="54" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G54" s="29">
+      <c r="G54" s="28">
         <v>45784</v>
       </c>
       <c r="H54" s="23" t="s">
@@ -4731,7 +4782,7 @@
       </c>
     </row>
     <row r="55" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G55" s="29">
+      <c r="G55" s="28">
         <v>45784</v>
       </c>
       <c r="H55" s="23" t="s">
@@ -4739,7 +4790,7 @@
       </c>
     </row>
     <row r="56" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G56" s="29">
+      <c r="G56" s="28">
         <v>45784</v>
       </c>
       <c r="H56" s="23" t="s">
@@ -4747,7 +4798,7 @@
       </c>
     </row>
     <row r="57" spans="7:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="G57" s="29">
+      <c r="G57" s="28">
         <v>45784</v>
       </c>
       <c r="H57" s="23" t="s">
@@ -5699,17 +5750,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5722,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -5740,49 +5791,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>16</v>
@@ -5802,7 +5853,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -5830,676 +5881,676 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="98" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="109"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="110"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="H34" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="I34" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="110"/>
+    </row>
+    <row r="35" spans="1:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
-    </row>
-    <row r="35" spans="1:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="D35" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="E35" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A36" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="C36" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="105">
         <v>45784</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H36" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A36" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="44" t="s">
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+    </row>
+    <row r="37" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A37" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="E36" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="29">
+      <c r="C37" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="105">
         <v>45784</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H37" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A37" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="44" t="s">
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+    </row>
+    <row r="38" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A38" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="E37" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="C38" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="105">
         <v>45784</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H38" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A38" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="44" t="s">
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+    </row>
+    <row r="39" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="C39" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="105">
         <v>45784</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H39" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-    </row>
-    <row r="39" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A39" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="44" t="s">
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+    </row>
+    <row r="40" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="C40" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="105">
         <v>45784</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H40" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-    </row>
-    <row r="40" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A40" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="C40" s="46" t="s">
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+    </row>
+    <row r="41" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A41" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="C41" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="F41" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+    </row>
+    <row r="42" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+    </row>
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A43" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+    </row>
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A44" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+    </row>
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+    </row>
+    <row r="46" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A46" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+    </row>
+    <row r="47" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A47" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+    </row>
+    <row r="48" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A48" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="F40" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="29">
+      <c r="E48" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="105">
         <v>45784</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H48" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-    </row>
-    <row r="41" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A41" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="29">
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+    </row>
+    <row r="49" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A49" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="105">
         <v>45784</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H49" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-    </row>
-    <row r="42" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="29">
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+    </row>
+    <row r="50" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A50" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="105">
         <v>45784</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H50" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A43" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="29">
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+    </row>
+    <row r="51" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A51" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="105">
         <v>45784</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H51" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A44" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="29">
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+    </row>
+    <row r="52" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A52" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="105">
         <v>45784</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H52" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A45" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="29">
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+    </row>
+    <row r="53" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A53" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="105">
         <v>45784</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H53" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A46" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="29">
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+    </row>
+    <row r="54" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A54" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="105">
         <v>45784</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H54" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-    </row>
-    <row r="47" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A47" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-    </row>
-    <row r="48" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A48" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H48" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-    </row>
-    <row r="49" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A49" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-    </row>
-    <row r="50" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A50" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-    </row>
-    <row r="51" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A51" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A52" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-    </row>
-    <row r="53" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A53" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H53" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-    </row>
-    <row r="54" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A54" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:12" ht="15.75" customHeight="1"/>
@@ -7449,17 +7500,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7471,8 +7522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -7490,49 +7541,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>18</v>
@@ -7552,7 +7603,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -7580,646 +7631,646 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="98" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="99"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="26" t="s">
+      <c r="G34" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="I34" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="102"/>
+    </row>
+    <row r="35" spans="1:12" ht="149.25" thickBot="1">
+      <c r="A35" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
-    </row>
-    <row r="35" spans="1:12" ht="149.25" thickBot="1">
-      <c r="A35" s="27" t="s">
+      <c r="B35" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="E35" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H35" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+    </row>
+    <row r="36" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A36" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="D36" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="105">
         <v>45784</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-    </row>
-    <row r="36" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="27" t="s">
+      <c r="H36" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+    </row>
+    <row r="37" spans="1:12" ht="165.75" thickBot="1">
+      <c r="A37" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="29">
+      <c r="D37" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="105">
         <v>45784</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-    </row>
-    <row r="37" spans="1:12" ht="165.75" thickBot="1">
-      <c r="A37" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="27" t="s">
+      <c r="H37" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+    </row>
+    <row r="38" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A38" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="D38" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="105">
         <v>45784</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A38" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="27" t="s">
+      <c r="H38" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+    </row>
+    <row r="39" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A39" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="D39" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="105">
         <v>45784</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="27" t="s">
+      <c r="H39" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+    </row>
+    <row r="40" spans="1:12" ht="132.75" thickBot="1">
+      <c r="A40" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="D40" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="105">
         <v>45784</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" ht="132.75" thickBot="1">
-      <c r="A40" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="27" t="s">
+      <c r="H40" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+    </row>
+    <row r="41" spans="1:12" ht="99.75" thickBot="1">
+      <c r="A41" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="29">
+      <c r="D41" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="105">
         <v>45784</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" ht="99.75" thickBot="1">
-      <c r="A41" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="27" t="s">
+      <c r="H41" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+    </row>
+    <row r="42" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A42" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="29">
+      <c r="D42" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="105">
         <v>45784</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A42" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="27" t="s">
+      <c r="H42" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+    </row>
+    <row r="43" spans="1:12" ht="149.25" thickBot="1">
+      <c r="A43" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="B43" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D43" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E43" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="29">
+      <c r="F43" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="105">
         <v>45784</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="149.25" thickBot="1">
-      <c r="A43" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="27" t="s">
+      <c r="H43" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+    </row>
+    <row r="44" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A44" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="B44" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D44" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H44" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+    </row>
+    <row r="45" spans="1:12" ht="132.75" thickBot="1">
+      <c r="A45" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H45" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+    </row>
+    <row r="46" spans="1:12" ht="132.75" thickBot="1">
+      <c r="A46" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="29">
+      <c r="D46" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="105">
         <v>45784</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-    </row>
-    <row r="44" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A44" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="29">
+      <c r="H46" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+    </row>
+    <row r="47" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A47" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="105">
         <v>45784</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-    </row>
-    <row r="45" spans="1:12" ht="132.75" thickBot="1">
-      <c r="A45" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="29">
+      <c r="H47" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+    </row>
+    <row r="48" spans="1:12" ht="99.75" thickBot="1">
+      <c r="A48" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="105">
         <v>45784</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="1:12" ht="132.75" thickBot="1">
-      <c r="A46" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="27" t="s">
+      <c r="H48" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+    </row>
+    <row r="49" spans="1:12" ht="132.75" thickBot="1">
+      <c r="A49" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="105">
+        <v>45784</v>
+      </c>
+      <c r="H49" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+    </row>
+    <row r="50" spans="1:12" ht="165.75" thickBot="1">
+      <c r="A50" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="F46" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="29">
+      <c r="F50" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="105">
         <v>45784</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-    </row>
-    <row r="47" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A47" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="29">
+      <c r="H50" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+    </row>
+    <row r="51" spans="1:12" ht="165.75" thickBot="1">
+      <c r="A51" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="105">
         <v>45784</v>
       </c>
-      <c r="H47" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="1:12" ht="99.75" thickBot="1">
-      <c r="A48" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="29">
+      <c r="H51" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+    </row>
+    <row r="52" spans="1:12" ht="116.25" thickBot="1">
+      <c r="A52" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="105">
         <v>45784</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-    </row>
-    <row r="49" spans="1:12" ht="132.75" thickBot="1">
-      <c r="A49" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="29">
+      <c r="H52" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+    </row>
+    <row r="53" spans="1:12" ht="83.25" thickBot="1">
+      <c r="A53" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="105">
         <v>45784</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-    </row>
-    <row r="50" spans="1:12" ht="165.75" thickBot="1">
-      <c r="A50" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="27" t="s">
+      <c r="H53" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="F50" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-    </row>
-    <row r="51" spans="1:12" ht="165.75" thickBot="1">
-      <c r="A51" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-    </row>
-    <row r="52" spans="1:12" ht="116.25" thickBot="1">
-      <c r="A52" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" ht="83.25" thickBot="1">
-      <c r="A53" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:12" ht="15.75" customHeight="1"/>
@@ -9169,17 +9220,17 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9191,8 +9242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -9208,49 +9259,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>16</v>
@@ -9265,12 +9316,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="19">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -9298,95 +9349,95 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="I34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="K34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="1:12" ht="34.5" thickTop="1" thickBot="1">
       <c r="A35" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="D35" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>105</v>
+      <c r="E35" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="23" t="s">
@@ -9399,22 +9450,22 @@
     </row>
     <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="D36" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="D36" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>105</v>
+      <c r="E36" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="23" t="s">
@@ -9427,22 +9478,22 @@
     </row>
     <row r="37" spans="1:12" ht="33.75" thickBot="1">
       <c r="A37" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="D37" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>105</v>
+      <c r="E37" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="23" t="s">
@@ -9455,22 +9506,22 @@
     </row>
     <row r="38" spans="1:12" ht="33.75" thickBot="1">
       <c r="A38" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="D38" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>105</v>
+      <c r="E38" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="23" t="s">
@@ -9483,22 +9534,22 @@
     </row>
     <row r="39" spans="1:12" ht="33.75" thickBot="1">
       <c r="A39" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="D39" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>134</v>
+      <c r="E39" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="23" t="s">
@@ -9511,22 +9562,22 @@
     </row>
     <row r="40" spans="1:12" ht="33.75" thickBot="1">
       <c r="A40" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="D40" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>134</v>
+      <c r="E40" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="23" t="s">
@@ -9539,22 +9590,22 @@
     </row>
     <row r="41" spans="1:12" ht="33.75" thickBot="1">
       <c r="A41" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="D41" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>105</v>
+      <c r="E41" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="23" t="s">
@@ -9567,22 +9618,22 @@
     </row>
     <row r="42" spans="1:12" ht="33.75" thickBot="1">
       <c r="A42" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="D42" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="D42" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>105</v>
+      <c r="E42" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="23" t="s">
@@ -9595,22 +9646,22 @@
     </row>
     <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="D43" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>105</v>
+      <c r="E43" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="23" t="s">
@@ -9623,22 +9674,22 @@
     </row>
     <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="D44" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>105</v>
+      <c r="E44" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="23" t="s">
@@ -9651,22 +9702,22 @@
     </row>
     <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="D45" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="D45" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>105</v>
+      <c r="E45" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="23" t="s">
@@ -9679,22 +9730,22 @@
     </row>
     <row r="46" spans="1:12" ht="33.75" thickBot="1">
       <c r="A46" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="D46" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="D46" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>105</v>
+      <c r="E46" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="23" t="s">
@@ -9707,22 +9758,22 @@
     </row>
     <row r="47" spans="1:12" ht="50.25" thickBot="1">
       <c r="A47" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="D47" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>105</v>
+      <c r="E47" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="23" t="s">
@@ -9735,22 +9786,22 @@
     </row>
     <row r="48" spans="1:12" ht="33.75" thickBot="1">
       <c r="A48" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="D48" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="D48" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>105</v>
+      <c r="E48" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="23" t="s">
@@ -9763,22 +9814,22 @@
     </row>
     <row r="49" spans="1:12" ht="33.75" thickBot="1">
       <c r="A49" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="D49" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>105</v>
+      <c r="E49" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="23" t="s">
@@ -9791,22 +9842,22 @@
     </row>
     <row r="50" spans="1:12" ht="33.75" thickBot="1">
       <c r="A50" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="D50" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>105</v>
+      <c r="E50" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="23" t="s">
@@ -9819,22 +9870,22 @@
     </row>
     <row r="51" spans="1:12" ht="50.25" thickBot="1">
       <c r="A51" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="D51" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>105</v>
+      <c r="E51" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="23" t="s">
@@ -9847,22 +9898,22 @@
     </row>
     <row r="52" spans="1:12" ht="33.75" thickBot="1">
       <c r="A52" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="D52" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="D52" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>105</v>
+      <c r="E52" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="23" t="s">
@@ -10821,17 +10872,17 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10844,7 +10895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:H57"/>
     </sheetView>
   </sheetViews>
@@ -10862,49 +10913,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>20</v>
@@ -10924,7 +10975,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -10952,97 +11003,97 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="I34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="K34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="D35" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="E35" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <v>45784</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -11055,24 +11106,24 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="D36" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="29">
+        <v>104</v>
+      </c>
+      <c r="G36" s="28">
         <v>45784</v>
       </c>
       <c r="H36" s="23" t="s">
@@ -11085,24 +11136,24 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="D37" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="E37" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="29">
+        <v>104</v>
+      </c>
+      <c r="G37" s="28">
         <v>45784</v>
       </c>
       <c r="H37" s="23" t="s">
@@ -11115,24 +11166,24 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="D38" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>114</v>
-      </c>
       <c r="E38" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="29">
+        <v>104</v>
+      </c>
+      <c r="G38" s="28">
         <v>45784</v>
       </c>
       <c r="H38" s="23" t="s">
@@ -11145,24 +11196,24 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="D39" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>117</v>
-      </c>
       <c r="E39" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="29">
+        <v>104</v>
+      </c>
+      <c r="G39" s="28">
         <v>45784</v>
       </c>
       <c r="H39" s="23" t="s">
@@ -11175,24 +11226,24 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="D40" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="E40" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="29">
+        <v>104</v>
+      </c>
+      <c r="G40" s="28">
         <v>45784</v>
       </c>
       <c r="H40" s="23" t="s">
@@ -11205,24 +11256,24 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="D41" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>123</v>
-      </c>
       <c r="E41" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="29">
+        <v>104</v>
+      </c>
+      <c r="G41" s="28">
         <v>45784</v>
       </c>
       <c r="H41" s="23" t="s">
@@ -11235,24 +11286,24 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="D42" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="E42" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="29">
+        <v>104</v>
+      </c>
+      <c r="G42" s="28">
         <v>45784</v>
       </c>
       <c r="H42" s="23" t="s">
@@ -11265,24 +11316,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="D43" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="E43" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="29">
+        <v>104</v>
+      </c>
+      <c r="G43" s="28">
         <v>45784</v>
       </c>
       <c r="H43" s="23" t="s">
@@ -11295,24 +11346,24 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="D44" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="E44" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="29">
+      <c r="G44" s="28">
         <v>45784</v>
       </c>
       <c r="H44" s="23" t="s">
@@ -11325,24 +11376,24 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="D45" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="29">
+        <v>104</v>
+      </c>
+      <c r="G45" s="28">
         <v>45784</v>
       </c>
       <c r="H45" s="23" t="s">
@@ -11355,24 +11406,24 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="D46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>140</v>
-      </c>
       <c r="E46" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="29">
+        <v>104</v>
+      </c>
+      <c r="G46" s="28">
         <v>45784</v>
       </c>
       <c r="H46" s="23" t="s">
@@ -11385,24 +11436,24 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="D47" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>143</v>
-      </c>
       <c r="E47" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="29">
+        <v>104</v>
+      </c>
+      <c r="G47" s="28">
         <v>45784</v>
       </c>
       <c r="H47" s="23" t="s">
@@ -11415,24 +11466,24 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="D48" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>146</v>
-      </c>
       <c r="E48" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="29">
+        <v>104</v>
+      </c>
+      <c r="G48" s="28">
         <v>45784</v>
       </c>
       <c r="H48" s="23" t="s">
@@ -11445,24 +11496,24 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="D49" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="E49" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>150</v>
-      </c>
       <c r="F49" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="29">
+        <v>133</v>
+      </c>
+      <c r="G49" s="28">
         <v>45784</v>
       </c>
       <c r="H49" s="23" t="s">
@@ -11475,24 +11526,24 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="D50" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="E50" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="29">
+        <v>104</v>
+      </c>
+      <c r="G50" s="28">
         <v>45784</v>
       </c>
       <c r="H50" s="23" t="s">
@@ -11505,24 +11556,24 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="D51" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>156</v>
-      </c>
       <c r="E51" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="29">
+        <v>104</v>
+      </c>
+      <c r="G51" s="28">
         <v>45784</v>
       </c>
       <c r="H51" s="23" t="s">
@@ -11535,24 +11586,24 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>158</v>
-      </c>
       <c r="D52" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="29">
+        <v>104</v>
+      </c>
+      <c r="G52" s="28">
         <v>45784</v>
       </c>
       <c r="H52" s="23" t="s">
@@ -11565,24 +11616,24 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="D53" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>161</v>
-      </c>
       <c r="E53" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="29">
+        <v>104</v>
+      </c>
+      <c r="G53" s="28">
         <v>45784</v>
       </c>
       <c r="H53" s="23" t="s">
@@ -11595,24 +11646,24 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="D54" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>164</v>
-      </c>
       <c r="E54" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="29">
+        <v>104</v>
+      </c>
+      <c r="G54" s="28">
         <v>45784</v>
       </c>
       <c r="H54" s="23" t="s">
@@ -11625,24 +11676,24 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="C55" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="D55" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="F55" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="29">
+        <v>133</v>
+      </c>
+      <c r="G55" s="28">
         <v>45784</v>
       </c>
       <c r="H55" s="23" t="s">
@@ -11655,24 +11706,24 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="C56" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="D56" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>173</v>
-      </c>
       <c r="E56" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="29">
+        <v>104</v>
+      </c>
+      <c r="G56" s="28">
         <v>45784</v>
       </c>
       <c r="H56" s="23" t="s">
@@ -11685,24 +11736,24 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="C57" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="D57" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>177</v>
-      </c>
       <c r="E57" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="29">
+        <v>104</v>
+      </c>
+      <c r="G57" s="28">
         <v>45784</v>
       </c>
       <c r="H57" s="23" t="s">
@@ -12644,17 +12695,17 @@
     <row r="986" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12666,8 +12717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G48"/>
+    <sheetView topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -12684,49 +12735,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>12</v>
@@ -12746,7 +12797,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -12774,496 +12825,496 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="26" t="s">
+      <c r="G34" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="I34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="80"/>
+    </row>
+    <row r="35" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
+      <c r="A35" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="75"/>
-    </row>
-    <row r="35" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
-      <c r="A35" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="E35" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="96">
+        <v>45784</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:12" ht="48" thickBot="1">
+      <c r="A36" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="C36" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="96">
         <v>45784</v>
       </c>
-      <c r="H35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-    </row>
-    <row r="36" spans="1:12" ht="48" thickBot="1">
-      <c r="A36" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="36" t="s">
+      <c r="H36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="1:12" ht="48" thickBot="1">
+      <c r="A37" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="C37" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="F36" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="29">
+      <c r="F37" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="96">
         <v>45784</v>
       </c>
-      <c r="H36" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-    </row>
-    <row r="37" spans="1:12" ht="48" thickBot="1">
-      <c r="A37" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="36" t="s">
+      <c r="H37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="1:12" ht="48" thickBot="1">
+      <c r="A38" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="C38" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="96">
+        <v>45784</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A39" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="F39" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="96">
         <v>45784</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-    </row>
-    <row r="38" spans="1:12" ht="48" thickBot="1">
-      <c r="A38" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="H39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
+      <c r="A40" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="96">
         <v>45784</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="39" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A39" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="36" t="s">
+      <c r="H40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+    </row>
+    <row r="41" spans="1:12" ht="48" thickBot="1">
+      <c r="A41" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="96">
+        <v>45784</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+    </row>
+    <row r="42" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A42" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="96">
+        <v>45784</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+    </row>
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A43" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="F43" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="96">
         <v>45784</v>
       </c>
-      <c r="H39" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-    </row>
-    <row r="40" spans="1:12" ht="48.75" thickTop="1" thickBot="1">
-      <c r="A40" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="29">
+      <c r="H43" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A44" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="96">
         <v>45784</v>
       </c>
-      <c r="H40" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-    </row>
-    <row r="41" spans="1:12" ht="48" thickBot="1">
-      <c r="A41" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="29">
+      <c r="H44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:12" ht="33" thickTop="1" thickBot="1">
+      <c r="A45" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="96">
         <v>45784</v>
       </c>
-      <c r="H41" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-    </row>
-    <row r="42" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A42" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="29">
+      <c r="H45" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A46" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="96">
         <v>45784</v>
       </c>
-      <c r="H42" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-    </row>
-    <row r="43" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A43" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" s="37" t="s">
+      <c r="H46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+    </row>
+    <row r="47" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A47" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="96">
+        <v>45784</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="1:12" ht="48" customHeight="1" thickBot="1">
+      <c r="A48" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="29">
+      <c r="E48" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="96">
         <v>45784</v>
       </c>
-      <c r="H43" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-    </row>
-    <row r="44" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A44" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-    </row>
-    <row r="45" spans="1:12" ht="33" thickTop="1" thickBot="1">
-      <c r="A45" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-    </row>
-    <row r="46" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A46" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-    </row>
-    <row r="47" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A47" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="29">
-        <v>45784</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-    </row>
-    <row r="48" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A48" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="29">
-        <v>45784</v>
-      </c>
       <c r="H48" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -14216,22 +14267,22 @@
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14239,101 +14290,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="45" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="56" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.5703125" style="56" customWidth="1"/>
-    <col min="27" max="16384" width="12.5703125" style="56"/>
+    <col min="1" max="1" width="18.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="45" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5703125" style="55" customWidth="1"/>
+    <col min="27" max="16384" width="12.5703125" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="57" t="s">
+      <c r="B2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="60" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="60" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="61" t="s">
+      <c r="B4" s="61">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61">
         <v>0</v>
       </c>
-      <c r="C4" s="62">
+      <c r="D5" s="61">
         <v>0</v>
       </c>
-      <c r="D4" s="62">
+      <c r="E5" s="63">
         <v>0</v>
       </c>
-      <c r="E4" s="62">
-        <v>0</v>
-      </c>
-      <c r="F4" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62">
-        <v>0</v>
-      </c>
-      <c r="D5" s="62">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64">
-        <v>0</v>
-      </c>
-      <c r="F5" s="63">
+      <c r="F5" s="62">
         <v>0</v>
       </c>
     </row>
@@ -14349,395 +14400,395 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="83" t="s">
+      <c r="D32" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="E32" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="F32" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="83" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="85" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="86" t="s">
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="86" t="s">
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="89"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="87"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="84"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="66" t="s">
+      <c r="G34" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="H34" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="I34" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="90"/>
+    </row>
+    <row r="35" spans="1:12" ht="132.75" thickBot="1">
+      <c r="A35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:12" ht="132.75" thickBot="1">
-      <c r="A35" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+    </row>
+    <row r="36" spans="1:12" ht="132.75" thickBot="1">
+      <c r="A36" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+    </row>
+    <row r="37" spans="1:12" ht="215.25" thickBot="1">
+      <c r="A37" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>397</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-    </row>
-    <row r="36" spans="1:12" ht="132.75" thickBot="1">
-      <c r="A36" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="C37" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-    </row>
-    <row r="37" spans="1:12" ht="215.25" thickBot="1">
-      <c r="A37" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="C37" s="51" t="s">
+      <c r="D37" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="F37" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+    </row>
+    <row r="38" spans="1:12" ht="215.25" thickBot="1">
+      <c r="A38" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-    </row>
-    <row r="38" spans="1:12" ht="215.25" thickBot="1">
-      <c r="A38" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="70" t="s">
+      <c r="C38" s="50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>399</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="E38" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
+      <c r="A39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
+      <c r="A40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
+      <c r="A41" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
+      <c r="A42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
+      <c r="A43" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A44" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
+      <c r="A44" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
+      <c r="A45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
+      <c r="A46" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
+      <c r="A47" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
+      <c r="A48" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="51"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
+      <c r="A49" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
+      <c r="A50" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
+      <c r="A51" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:12" ht="15.75" customHeight="1"/>
@@ -15690,17 +15741,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15728,49 +15779,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>0</v>
@@ -15790,7 +15841,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="19">
@@ -15818,76 +15869,76 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="E32" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="F32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="I34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="K34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
@@ -16870,17 +16921,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16891,66 +16942,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="94" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="94" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="94" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="94" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="70" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="70" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13">
         <v>10</v>
@@ -16970,9 +17021,9 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="96"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="72"/>
       <c r="C5" s="13">
         <v>0</v>
       </c>
@@ -16998,98 +17049,98 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="91" t="s">
+      <c r="D32" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="E32" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="F32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="74" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="77" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="75"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="I34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="81"/>
+    </row>
+    <row r="35" spans="1:12" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="76"/>
-    </row>
-    <row r="35" spans="1:12" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A35" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="D35" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="D35" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="52" t="s">
+      <c r="E35" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="25"/>
@@ -17098,26 +17149,26 @@
       <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A36" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="C36" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="D36" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="D36" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="52" t="s">
+      <c r="E36" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I36" s="25"/>
@@ -17126,26 +17177,26 @@
       <c r="L36" s="25"/>
     </row>
     <row r="37" spans="1:12" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A37" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="D37" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="D37" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="52" t="s">
+      <c r="E37" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="25"/>
@@ -17154,26 +17205,26 @@
       <c r="L37" s="25"/>
     </row>
     <row r="38" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A38" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="D38" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="D38" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="52" t="s">
+      <c r="E38" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="25"/>
@@ -17182,26 +17233,26 @@
       <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12" ht="66" customHeight="1" thickBot="1">
-      <c r="A39" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" s="71" t="s">
         <v>416</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="D39" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="52" t="s">
+      <c r="E39" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I39" s="25"/>
@@ -17210,26 +17261,26 @@
       <c r="L39" s="25"/>
     </row>
     <row r="40" spans="1:12" ht="129" customHeight="1" thickBot="1">
-      <c r="A40" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C40" s="71" t="s">
         <v>419</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="D40" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="D40" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="52" t="s">
+      <c r="E40" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="52"/>
+      <c r="H40" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I40" s="25"/>
@@ -17238,26 +17289,26 @@
       <c r="L40" s="25"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="48" t="s">
+      <c r="A41" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="D41" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="E41" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="E41" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52" t="s">
+      <c r="F41" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="25"/>
@@ -17266,26 +17317,26 @@
       <c r="L41" s="25"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="71" t="s">
         <v>426</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="D42" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="E42" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E42" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="52" t="s">
+      <c r="F42" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I42" s="25"/>
@@ -17294,26 +17345,26 @@
       <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="48" t="s">
+      <c r="A43" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="D43" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="D43" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="52" t="s">
+      <c r="E43" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I43" s="25"/>
@@ -17322,26 +17373,26 @@
       <c r="L43" s="25"/>
     </row>
     <row r="44" spans="1:12" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A44" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C44" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="D44" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="E44" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="E44" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="52" t="s">
+      <c r="F44" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I44" s="25"/>
@@ -17350,28 +17401,28 @@
       <c r="L44" s="25"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="52"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="37"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="52"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
@@ -18333,17 +18384,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Documents/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Documents/8.2.ProjectTestCaseSprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WTVVQLHS1995\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\GitHub\WTVVQLHS1995\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3075A5-46CE-4983-B4EF-6DF4F77A6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079266E4-4B2A-4DDF-9118-55547C139118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12186" tabRatio="847" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp Kiểm thử" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -4414,6 +4412,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4435,23 +4450,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4462,6 +4460,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4485,23 +4501,11 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4512,12 +4516,16 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4549,16 +4557,24 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4580,34 +4596,16 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5495,17 +5493,17 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="48.87890625" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="16.87890625" customWidth="1"/>
-    <col min="5" max="5" width="18.29296875" customWidth="1"/>
-    <col min="6" max="26" width="8.5859375" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
@@ -5524,7 +5522,7 @@
       <c r="D2" s="163"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.350000000000001">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.350000000000001">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5551,12 +5549,14 @@
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>32</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.350000000000001">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -5566,12 +5566,14 @@
       <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>43</v>
+      </c>
       <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.350000000000001">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -5581,12 +5583,14 @@
       <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>33</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.350000000000001">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -5596,12 +5600,14 @@
       <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>49</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.350000000000001">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -5611,12 +5617,14 @@
       <c r="C8" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>30</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.350000000000001">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -5626,12 +5634,14 @@
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>28</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.350000000000001">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -5641,12 +5651,14 @@
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.350000000000001">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -5656,12 +5668,14 @@
       <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>44</v>
+      </c>
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.350000000000001">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -5671,7 +5685,9 @@
       <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>31</v>
+      </c>
       <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
@@ -6680,46 +6696,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="67" customWidth="1"/>
     <col min="2" max="2" width="31" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1171875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="67" customWidth="1"/>
-    <col min="7" max="7" width="15.87890625" style="67" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="67"/>
+    <col min="3" max="3" width="32.125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="67" customWidth="1"/>
+    <col min="8" max="26" width="8.625" style="67" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="176"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="68"/>
@@ -6739,12 +6755,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="65">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C4" s="65">
         <v>0</v>
@@ -6756,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
@@ -6789,50 +6805,50 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="171" t="s">
+      <c r="E32" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="171" t="s">
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="168" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="217"/>
-      <c r="B33" s="217"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="212" t="s">
+      <c r="A33" s="204"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="175"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="212" t="s">
+      <c r="G33" s="165"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="217"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="204"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="240"/>
@@ -6860,23 +6876,23 @@
       </c>
       <c r="L34" s="240"/>
     </row>
-    <row r="35" spans="1:12" ht="15.7" customHeight="1" thickBot="1">
-      <c r="A35" s="222" t="s">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="228" t="s">
         <v>834</v>
       </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="223"/>
-      <c r="L35" s="224"/>
-    </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+      <c r="B35" s="229"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="230"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="75" t="s">
         <v>835</v>
       </c>
@@ -6904,7 +6920,7 @@
       <c r="K36" s="151"/>
       <c r="L36" s="153"/>
     </row>
-    <row r="37" spans="1:12" ht="49.35" thickBot="1">
+    <row r="37" spans="1:12" ht="50.25" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>836</v>
       </c>
@@ -6932,7 +6948,7 @@
       <c r="K37" s="151"/>
       <c r="L37" s="153"/>
     </row>
-    <row r="38" spans="1:12" ht="49.35" thickBot="1">
+    <row r="38" spans="1:12" ht="50.25" thickBot="1">
       <c r="A38" s="75" t="s">
         <v>837</v>
       </c>
@@ -6960,7 +6976,7 @@
       <c r="K38" s="151"/>
       <c r="L38" s="153"/>
     </row>
-    <row r="39" spans="1:12" ht="33" thickBot="1">
+    <row r="39" spans="1:12" ht="33.75" thickBot="1">
       <c r="A39" s="75" t="s">
         <v>838</v>
       </c>
@@ -6988,7 +7004,7 @@
       <c r="K39" s="151"/>
       <c r="L39" s="153"/>
     </row>
-    <row r="40" spans="1:12" ht="33" thickBot="1">
+    <row r="40" spans="1:12" ht="33.75" thickBot="1">
       <c r="A40" s="75" t="s">
         <v>839</v>
       </c>
@@ -7016,7 +7032,7 @@
       <c r="K40" s="151"/>
       <c r="L40" s="153"/>
     </row>
-    <row r="41" spans="1:12" ht="33" thickBot="1">
+    <row r="41" spans="1:12" ht="33.75" thickBot="1">
       <c r="A41" s="75" t="s">
         <v>840</v>
       </c>
@@ -7044,7 +7060,7 @@
       <c r="K41" s="151"/>
       <c r="L41" s="153"/>
     </row>
-    <row r="42" spans="1:12" ht="33" thickBot="1">
+    <row r="42" spans="1:12" ht="33.75" thickBot="1">
       <c r="A42" s="75" t="s">
         <v>841</v>
       </c>
@@ -7072,7 +7088,7 @@
       <c r="K42" s="151"/>
       <c r="L42" s="153"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="75" t="s">
         <v>842</v>
       </c>
@@ -7100,7 +7116,7 @@
       <c r="K43" s="151"/>
       <c r="L43" s="153"/>
     </row>
-    <row r="44" spans="1:12" ht="33" thickBot="1">
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="75" t="s">
         <v>843</v>
       </c>
@@ -7128,7 +7144,7 @@
       <c r="K44" s="151"/>
       <c r="L44" s="153"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickBot="1">
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="75" t="s">
         <v>844</v>
       </c>
@@ -7156,7 +7172,7 @@
       <c r="K45" s="151"/>
       <c r="L45" s="153"/>
     </row>
-    <row r="46" spans="1:12" ht="33" thickBot="1">
+    <row r="46" spans="1:12" ht="33.75" thickBot="1">
       <c r="A46" s="75" t="s">
         <v>845</v>
       </c>
@@ -7184,7 +7200,7 @@
       <c r="K46" s="151"/>
       <c r="L46" s="153"/>
     </row>
-    <row r="47" spans="1:12" ht="33" thickBot="1">
+    <row r="47" spans="1:12" ht="33.75" thickBot="1">
       <c r="A47" s="75" t="s">
         <v>846</v>
       </c>
@@ -7212,7 +7228,7 @@
       <c r="K47" s="151"/>
       <c r="L47" s="153"/>
     </row>
-    <row r="48" spans="1:12" ht="33" thickBot="1">
+    <row r="48" spans="1:12" ht="33.75" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>847</v>
       </c>
@@ -7240,7 +7256,7 @@
       <c r="K48" s="151"/>
       <c r="L48" s="153"/>
     </row>
-    <row r="49" spans="1:12" ht="33" thickBot="1">
+    <row r="49" spans="1:12" ht="33.75" thickBot="1">
       <c r="A49" s="75" t="s">
         <v>848</v>
       </c>
@@ -7268,7 +7284,7 @@
       <c r="K49" s="151"/>
       <c r="L49" s="153"/>
     </row>
-    <row r="50" spans="1:12" ht="49.35" thickBot="1">
+    <row r="50" spans="1:12" ht="50.25" thickBot="1">
       <c r="A50" s="75" t="s">
         <v>849</v>
       </c>
@@ -7296,7 +7312,7 @@
       <c r="K50" s="151"/>
       <c r="L50" s="153"/>
     </row>
-    <row r="51" spans="1:12" ht="49.35" thickBot="1">
+    <row r="51" spans="1:12" ht="50.25" thickBot="1">
       <c r="A51" s="75" t="s">
         <v>850</v>
       </c>
@@ -7324,7 +7340,7 @@
       <c r="K51" s="151"/>
       <c r="L51" s="153"/>
     </row>
-    <row r="52" spans="1:12" ht="49.35" thickBot="1">
+    <row r="52" spans="1:12" ht="50.25" thickBot="1">
       <c r="A52" s="75" t="s">
         <v>851</v>
       </c>
@@ -7352,7 +7368,7 @@
       <c r="K52" s="151"/>
       <c r="L52" s="153"/>
     </row>
-    <row r="53" spans="1:12" ht="33" thickBot="1">
+    <row r="53" spans="1:12" ht="33.75" thickBot="1">
       <c r="A53" s="75" t="s">
         <v>852</v>
       </c>
@@ -7380,7 +7396,7 @@
       <c r="K53" s="151"/>
       <c r="L53" s="153"/>
     </row>
-    <row r="54" spans="1:12" ht="33" thickBot="1">
+    <row r="54" spans="1:12" ht="33.75" thickBot="1">
       <c r="A54" s="75" t="s">
         <v>853</v>
       </c>
@@ -7408,7 +7424,7 @@
       <c r="K54" s="151"/>
       <c r="L54" s="153"/>
     </row>
-    <row r="55" spans="1:12" ht="33" thickBot="1">
+    <row r="55" spans="1:12" ht="33.75" thickBot="1">
       <c r="A55" s="75" t="s">
         <v>854</v>
       </c>
@@ -7436,7 +7452,7 @@
       <c r="K55" s="151"/>
       <c r="L55" s="153"/>
     </row>
-    <row r="56" spans="1:12" ht="33" thickBot="1">
+    <row r="56" spans="1:12" ht="33.75" thickBot="1">
       <c r="A56" s="75" t="s">
         <v>855</v>
       </c>
@@ -7464,7 +7480,7 @@
       <c r="K56" s="151"/>
       <c r="L56" s="153"/>
     </row>
-    <row r="57" spans="1:12" ht="33" thickBot="1">
+    <row r="57" spans="1:12" ht="33.75" thickBot="1">
       <c r="A57" s="75" t="s">
         <v>856</v>
       </c>
@@ -7493,22 +7509,22 @@
       <c r="L57" s="153"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A58" s="222" t="s">
+      <c r="A58" s="228" t="s">
         <v>857</v>
       </c>
-      <c r="B58" s="223"/>
-      <c r="C58" s="223"/>
-      <c r="D58" s="223"/>
-      <c r="E58" s="223"/>
-      <c r="F58" s="223"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="223"/>
-      <c r="I58" s="223"/>
-      <c r="J58" s="223"/>
-      <c r="K58" s="223"/>
-      <c r="L58" s="224"/>
-    </row>
-    <row r="59" spans="1:12" ht="33" thickBot="1">
+      <c r="B58" s="229"/>
+      <c r="C58" s="229"/>
+      <c r="D58" s="229"/>
+      <c r="E58" s="229"/>
+      <c r="F58" s="229"/>
+      <c r="G58" s="229"/>
+      <c r="H58" s="229"/>
+      <c r="I58" s="229"/>
+      <c r="J58" s="229"/>
+      <c r="K58" s="229"/>
+      <c r="L58" s="230"/>
+    </row>
+    <row r="59" spans="1:12" ht="33.75" thickBot="1">
       <c r="A59" s="31" t="s">
         <v>44</v>
       </c>
@@ -7538,7 +7554,7 @@
       <c r="K59" s="154"/>
       <c r="L59" s="154"/>
     </row>
-    <row r="60" spans="1:12" ht="33" thickBot="1">
+    <row r="60" spans="1:12" ht="33.75" thickBot="1">
       <c r="A60" s="31" t="s">
         <v>47</v>
       </c>
@@ -7568,7 +7584,7 @@
       <c r="K60" s="154"/>
       <c r="L60" s="154"/>
     </row>
-    <row r="61" spans="1:12" ht="82" thickBot="1">
+    <row r="61" spans="1:12" ht="66.75" thickBot="1">
       <c r="A61" s="31" t="s">
         <v>50</v>
       </c>
@@ -7598,7 +7614,7 @@
       <c r="K61" s="154"/>
       <c r="L61" s="154"/>
     </row>
-    <row r="62" spans="1:12" ht="98.35" thickBot="1">
+    <row r="62" spans="1:12" ht="99.75" thickBot="1">
       <c r="A62" s="31" t="s">
         <v>53</v>
       </c>
@@ -7628,7 +7644,7 @@
       <c r="K62" s="154"/>
       <c r="L62" s="154"/>
     </row>
-    <row r="63" spans="1:12" ht="49.35" thickBot="1">
+    <row r="63" spans="1:12" ht="50.25" thickBot="1">
       <c r="A63" s="31" t="s">
         <v>56</v>
       </c>
@@ -7658,7 +7674,7 @@
       <c r="K63" s="154"/>
       <c r="L63" s="154"/>
     </row>
-    <row r="64" spans="1:12" ht="65.7" thickBot="1">
+    <row r="64" spans="1:12" ht="66.75" thickBot="1">
       <c r="A64" s="31" t="s">
         <v>59</v>
       </c>
@@ -7688,7 +7704,7 @@
       <c r="K64" s="154"/>
       <c r="L64" s="154"/>
     </row>
-    <row r="65" spans="1:12" ht="82" thickBot="1">
+    <row r="65" spans="1:12" ht="83.25" thickBot="1">
       <c r="A65" s="31" t="s">
         <v>62</v>
       </c>
@@ -7718,7 +7734,7 @@
       <c r="K65" s="154"/>
       <c r="L65" s="154"/>
     </row>
-    <row r="66" spans="1:12" ht="82" thickBot="1">
+    <row r="66" spans="1:12" ht="66.75" thickBot="1">
       <c r="A66" s="31" t="s">
         <v>65</v>
       </c>
@@ -7748,7 +7764,7 @@
       <c r="K66" s="154"/>
       <c r="L66" s="154"/>
     </row>
-    <row r="67" spans="1:12" ht="114.7" thickBot="1">
+    <row r="67" spans="1:12" ht="116.25" thickBot="1">
       <c r="A67" s="31" t="s">
         <v>67</v>
       </c>
@@ -8737,6 +8753,12 @@
     <row r="1024" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -8744,12 +8766,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8763,45 +8779,45 @@
   <dimension ref="A1:O1006"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="29.05859375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="67" customWidth="1"/>
-    <col min="7" max="7" width="13.1171875" style="67" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="67"/>
+    <col min="1" max="1" width="18.375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="29" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="67" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="67" customWidth="1"/>
+    <col min="8" max="26" width="8.625" style="67" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="176"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.7" thickBot="1">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
       <c r="A3" s="68"/>
@@ -8821,12 +8837,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.7" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="65">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C4" s="65">
         <v>4</v>
@@ -8838,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.7" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
@@ -8871,57 +8887,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="171" t="s">
+      <c r="E32" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="168" t="s">
+      <c r="F32" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="171" t="s">
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="168" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="168" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="169"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="168" t="s">
+      <c r="G33" s="176"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="172"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="169"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="173"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
       <c r="F34" s="76" t="s">
         <v>41</v>
       </c>
@@ -8940,25 +8956,25 @@
       <c r="K34" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="173"/>
+      <c r="L34" s="170"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="171" t="s">
         <v>437</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="166"/>
-    </row>
-    <row r="36" spans="1:12" ht="32.700000000000003">
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="173"/>
+    </row>
+    <row r="36" spans="1:12" ht="33">
       <c r="A36" s="71" t="s">
         <v>438</v>
       </c>
@@ -8986,7 +9002,7 @@
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
     </row>
-    <row r="37" spans="1:12" ht="49">
+    <row r="37" spans="1:12" ht="49.5">
       <c r="A37" s="71" t="s">
         <v>439</v>
       </c>
@@ -9014,7 +9030,7 @@
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
     </row>
-    <row r="38" spans="1:12" ht="32.700000000000003">
+    <row r="38" spans="1:12" ht="33">
       <c r="A38" s="71" t="s">
         <v>440</v>
       </c>
@@ -9042,7 +9058,7 @@
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
     </row>
-    <row r="39" spans="1:12" ht="32.700000000000003">
+    <row r="39" spans="1:12" ht="33">
       <c r="A39" s="71" t="s">
         <v>441</v>
       </c>
@@ -9070,7 +9086,7 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
     </row>
-    <row r="40" spans="1:12" ht="49">
+    <row r="40" spans="1:12" ht="49.5">
       <c r="A40" s="71" t="s">
         <v>442</v>
       </c>
@@ -9098,7 +9114,7 @@
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
     </row>
-    <row r="41" spans="1:12" ht="32.700000000000003">
+    <row r="41" spans="1:12" ht="33">
       <c r="A41" s="71" t="s">
         <v>443</v>
       </c>
@@ -9126,7 +9142,7 @@
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
     </row>
-    <row r="42" spans="1:12" ht="32.700000000000003">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="71" t="s">
         <v>444</v>
       </c>
@@ -9154,7 +9170,7 @@
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
     </row>
-    <row r="43" spans="1:12" ht="32.700000000000003">
+    <row r="43" spans="1:12" ht="33">
       <c r="A43" s="71" t="s">
         <v>445</v>
       </c>
@@ -9182,7 +9198,7 @@
       <c r="K43" s="71"/>
       <c r="L43" s="71"/>
     </row>
-    <row r="44" spans="1:12" ht="49">
+    <row r="44" spans="1:12" ht="49.5">
       <c r="A44" s="71" t="s">
         <v>459</v>
       </c>
@@ -9210,7 +9226,7 @@
       <c r="K44" s="71"/>
       <c r="L44" s="71"/>
     </row>
-    <row r="45" spans="1:12" ht="32.700000000000003">
+    <row r="45" spans="1:12" ht="33">
       <c r="A45" s="71" t="s">
         <v>460</v>
       </c>
@@ -9238,7 +9254,7 @@
       <c r="K45" s="71"/>
       <c r="L45" s="71"/>
     </row>
-    <row r="46" spans="1:12" ht="32.700000000000003">
+    <row r="46" spans="1:12" ht="33">
       <c r="A46" s="71" t="s">
         <v>461</v>
       </c>
@@ -9266,7 +9282,7 @@
       <c r="K46" s="71"/>
       <c r="L46" s="71"/>
     </row>
-    <row r="47" spans="1:12" ht="32.700000000000003">
+    <row r="47" spans="1:12" ht="33">
       <c r="A47" s="71" t="s">
         <v>462</v>
       </c>
@@ -9294,23 +9310,23 @@
       <c r="K47" s="71"/>
       <c r="L47" s="71"/>
     </row>
-    <row r="48" spans="1:12" ht="16.350000000000001">
-      <c r="A48" s="167" t="s">
+    <row r="48" spans="1:12" ht="16.5">
+      <c r="A48" s="174" t="s">
         <v>446</v>
       </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
-    </row>
-    <row r="49" spans="1:15" ht="33" thickBot="1">
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="174"/>
+      <c r="K48" s="174"/>
+      <c r="L48" s="174"/>
+    </row>
+    <row r="49" spans="1:15" ht="33.75" thickBot="1">
       <c r="A49" s="54" t="s">
         <v>44</v>
       </c>
@@ -9340,7 +9356,7 @@
       <c r="K49" s="58"/>
       <c r="L49" s="58"/>
     </row>
-    <row r="50" spans="1:15" ht="33" thickBot="1">
+    <row r="50" spans="1:15" ht="33.75" thickBot="1">
       <c r="A50" s="31" t="s">
         <v>47</v>
       </c>
@@ -9373,7 +9389,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="33" thickBot="1">
+    <row r="51" spans="1:15" ht="33.75" thickBot="1">
       <c r="A51" s="31" t="s">
         <v>50</v>
       </c>
@@ -9403,7 +9419,7 @@
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="1:15" ht="49.35" thickBot="1">
+    <row r="52" spans="1:15" ht="33.75" thickBot="1">
       <c r="A52" s="31" t="s">
         <v>53</v>
       </c>
@@ -9433,7 +9449,7 @@
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
     </row>
-    <row r="53" spans="1:15" ht="33" thickBot="1">
+    <row r="53" spans="1:15" ht="33.75" thickBot="1">
       <c r="A53" s="31" t="s">
         <v>56</v>
       </c>
@@ -9463,7 +9479,7 @@
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
     </row>
-    <row r="54" spans="1:15" ht="33" thickBot="1">
+    <row r="54" spans="1:15" ht="33.75" thickBot="1">
       <c r="A54" s="31" t="s">
         <v>59</v>
       </c>
@@ -9493,7 +9509,7 @@
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
     </row>
-    <row r="55" spans="1:15" ht="33" thickBot="1">
+    <row r="55" spans="1:15" ht="33.75" thickBot="1">
       <c r="A55" s="31" t="s">
         <v>62</v>
       </c>
@@ -9523,7 +9539,7 @@
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
     </row>
-    <row r="56" spans="1:15" ht="49.35" thickBot="1">
+    <row r="56" spans="1:15" ht="33.75" thickBot="1">
       <c r="A56" s="31" t="s">
         <v>65</v>
       </c>
@@ -9553,7 +9569,7 @@
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
     </row>
-    <row r="57" spans="1:15" ht="33" thickBot="1">
+    <row r="57" spans="1:15" ht="33.75" thickBot="1">
       <c r="A57" s="31" t="s">
         <v>67</v>
       </c>
@@ -9583,7 +9599,7 @@
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
     </row>
-    <row r="58" spans="1:15" ht="33" thickBot="1">
+    <row r="58" spans="1:15" ht="33.75" thickBot="1">
       <c r="A58" s="31" t="s">
         <v>69</v>
       </c>
@@ -9613,7 +9629,7 @@
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
     </row>
-    <row r="59" spans="1:15" ht="33" thickBot="1">
+    <row r="59" spans="1:15" ht="33.75" thickBot="1">
       <c r="A59" s="31" t="s">
         <v>72</v>
       </c>
@@ -9643,7 +9659,7 @@
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
     </row>
-    <row r="60" spans="1:15" ht="33" thickBot="1">
+    <row r="60" spans="1:15" ht="33.75" thickBot="1">
       <c r="A60" s="31" t="s">
         <v>75</v>
       </c>
@@ -10853,6 +10869,12 @@
     <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -10860,12 +10882,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10878,47 +10894,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L1016"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="33.1171875" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.703125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="34.703125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="21.29296875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="10.29296875" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.5859375" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="67"/>
+    <col min="1" max="1" width="18.375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="67" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="67" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="45" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.625" style="67" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="176"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.7" thickBot="1">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
       <c r="A3" s="68"/>
@@ -10938,12 +10954,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.7" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="65">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C4" s="65">
         <v>1</v>
@@ -10955,10 +10971,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.7" thickBot="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
@@ -10988,57 +11004,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="171" t="s">
+      <c r="E32" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="168" t="s">
+      <c r="F32" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="171" t="s">
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="168" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="168" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="169"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="168" t="s">
+      <c r="G33" s="176"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="172"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="169"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="172"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
       <c r="F34" s="88" t="s">
         <v>41</v>
       </c>
@@ -11057,7 +11073,7 @@
       <c r="K34" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="172"/>
+      <c r="L34" s="169"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="178" t="s">
@@ -11075,7 +11091,7 @@
       <c r="K35" s="179"/>
       <c r="L35" s="180"/>
     </row>
-    <row r="36" spans="1:12" ht="49">
+    <row r="36" spans="1:12" ht="49.5">
       <c r="A36" s="80" t="s">
         <v>473</v>
       </c>
@@ -11103,7 +11119,7 @@
       <c r="K36" s="82"/>
       <c r="L36" s="80"/>
     </row>
-    <row r="37" spans="1:12" ht="49">
+    <row r="37" spans="1:12" ht="49.5">
       <c r="A37" s="80" t="s">
         <v>474</v>
       </c>
@@ -11131,7 +11147,7 @@
       <c r="K37" s="82"/>
       <c r="L37" s="80"/>
     </row>
-    <row r="38" spans="1:12" ht="32.700000000000003">
+    <row r="38" spans="1:12" ht="33">
       <c r="A38" s="80" t="s">
         <v>475</v>
       </c>
@@ -11159,7 +11175,7 @@
       <c r="K38" s="82"/>
       <c r="L38" s="80"/>
     </row>
-    <row r="39" spans="1:12" ht="49">
+    <row r="39" spans="1:12" ht="49.5">
       <c r="A39" s="80" t="s">
         <v>476</v>
       </c>
@@ -11187,7 +11203,7 @@
       <c r="K39" s="82"/>
       <c r="L39" s="80"/>
     </row>
-    <row r="40" spans="1:12" ht="49">
+    <row r="40" spans="1:12" ht="49.5">
       <c r="A40" s="80" t="s">
         <v>477</v>
       </c>
@@ -11215,7 +11231,7 @@
       <c r="K40" s="82"/>
       <c r="L40" s="80"/>
     </row>
-    <row r="41" spans="1:12" ht="49">
+    <row r="41" spans="1:12" ht="49.5">
       <c r="A41" s="80" t="s">
         <v>478</v>
       </c>
@@ -11243,7 +11259,7 @@
       <c r="K41" s="82"/>
       <c r="L41" s="80"/>
     </row>
-    <row r="42" spans="1:12" ht="49">
+    <row r="42" spans="1:12" ht="49.5">
       <c r="A42" s="80" t="s">
         <v>479</v>
       </c>
@@ -11271,7 +11287,7 @@
       <c r="K42" s="82"/>
       <c r="L42" s="80"/>
     </row>
-    <row r="43" spans="1:12" ht="32.700000000000003">
+    <row r="43" spans="1:12" ht="33">
       <c r="A43" s="80" t="s">
         <v>480</v>
       </c>
@@ -11299,7 +11315,7 @@
       <c r="K43" s="82"/>
       <c r="L43" s="80"/>
     </row>
-    <row r="44" spans="1:12" ht="49">
+    <row r="44" spans="1:12" ht="49.5">
       <c r="A44" s="80" t="s">
         <v>481</v>
       </c>
@@ -11327,7 +11343,7 @@
       <c r="K44" s="82"/>
       <c r="L44" s="80"/>
     </row>
-    <row r="45" spans="1:12" ht="49">
+    <row r="45" spans="1:12" ht="49.5">
       <c r="A45" s="80" t="s">
         <v>482</v>
       </c>
@@ -11355,7 +11371,7 @@
       <c r="K45" s="82"/>
       <c r="L45" s="80"/>
     </row>
-    <row r="46" spans="1:12" ht="49">
+    <row r="46" spans="1:12" ht="49.5">
       <c r="A46" s="80" t="s">
         <v>483</v>
       </c>
@@ -11383,7 +11399,7 @@
       <c r="K46" s="82"/>
       <c r="L46" s="80"/>
     </row>
-    <row r="47" spans="1:12" ht="49">
+    <row r="47" spans="1:12" ht="49.5">
       <c r="A47" s="80" t="s">
         <v>524</v>
       </c>
@@ -11411,7 +11427,7 @@
       <c r="K47" s="82"/>
       <c r="L47" s="80"/>
     </row>
-    <row r="48" spans="1:12" ht="49">
+    <row r="48" spans="1:12" ht="49.5">
       <c r="A48" s="80" t="s">
         <v>525</v>
       </c>
@@ -11439,7 +11455,7 @@
       <c r="K48" s="82"/>
       <c r="L48" s="80"/>
     </row>
-    <row r="49" spans="1:12" ht="32.700000000000003">
+    <row r="49" spans="1:12" ht="33">
       <c r="A49" s="80" t="s">
         <v>526</v>
       </c>
@@ -11467,7 +11483,7 @@
       <c r="K49" s="82"/>
       <c r="L49" s="80"/>
     </row>
-    <row r="50" spans="1:12" ht="32.700000000000003">
+    <row r="50" spans="1:12" ht="33">
       <c r="A50" s="80" t="s">
         <v>527</v>
       </c>
@@ -11495,7 +11511,7 @@
       <c r="K50" s="82"/>
       <c r="L50" s="80"/>
     </row>
-    <row r="51" spans="1:12" ht="32.700000000000003">
+    <row r="51" spans="1:12" ht="33">
       <c r="A51" s="80" t="s">
         <v>528</v>
       </c>
@@ -11523,7 +11539,7 @@
       <c r="K51" s="82"/>
       <c r="L51" s="80"/>
     </row>
-    <row r="52" spans="1:12" ht="32.700000000000003">
+    <row r="52" spans="1:12" ht="33">
       <c r="A52" s="80" t="s">
         <v>529</v>
       </c>
@@ -11551,7 +11567,7 @@
       <c r="K52" s="82"/>
       <c r="L52" s="80"/>
     </row>
-    <row r="53" spans="1:12" ht="49">
+    <row r="53" spans="1:12" ht="49.5">
       <c r="A53" s="80" t="s">
         <v>530</v>
       </c>
@@ -11579,7 +11595,7 @@
       <c r="K53" s="82"/>
       <c r="L53" s="80"/>
     </row>
-    <row r="54" spans="1:12" ht="49">
+    <row r="54" spans="1:12" ht="49.5">
       <c r="A54" s="80" t="s">
         <v>531</v>
       </c>
@@ -11607,7 +11623,7 @@
       <c r="K54" s="82"/>
       <c r="L54" s="80"/>
     </row>
-    <row r="55" spans="1:12" ht="49">
+    <row r="55" spans="1:12" ht="49.5">
       <c r="A55" s="80" t="s">
         <v>532</v>
       </c>
@@ -11635,7 +11651,7 @@
       <c r="K55" s="82"/>
       <c r="L55" s="80"/>
     </row>
-    <row r="56" spans="1:12" ht="49">
+    <row r="56" spans="1:12" ht="49.5">
       <c r="A56" s="80" t="s">
         <v>533</v>
       </c>
@@ -11663,7 +11679,7 @@
       <c r="K56" s="82"/>
       <c r="L56" s="80"/>
     </row>
-    <row r="57" spans="1:12" ht="49">
+    <row r="57" spans="1:12" ht="49.5">
       <c r="A57" s="80" t="s">
         <v>534</v>
       </c>
@@ -11691,7 +11707,7 @@
       <c r="K57" s="82"/>
       <c r="L57" s="80"/>
     </row>
-    <row r="58" spans="1:12" ht="49">
+    <row r="58" spans="1:12" ht="49.5">
       <c r="A58" s="80" t="s">
         <v>535</v>
       </c>
@@ -11719,7 +11735,7 @@
       <c r="K58" s="82"/>
       <c r="L58" s="80"/>
     </row>
-    <row r="59" spans="1:12" ht="49">
+    <row r="59" spans="1:12" ht="49.5">
       <c r="A59" s="80" t="s">
         <v>536</v>
       </c>
@@ -11747,7 +11763,7 @@
       <c r="K59" s="82"/>
       <c r="L59" s="80"/>
     </row>
-    <row r="60" spans="1:12" ht="16.350000000000001">
+    <row r="60" spans="1:12" ht="16.5">
       <c r="A60" s="181" t="s">
         <v>471</v>
       </c>
@@ -11763,7 +11779,7 @@
       <c r="K60" s="181"/>
       <c r="L60" s="181"/>
     </row>
-    <row r="61" spans="1:12" ht="114.35">
+    <row r="61" spans="1:12" ht="115.5">
       <c r="A61" s="83" t="s">
         <v>484</v>
       </c>
@@ -11793,7 +11809,7 @@
       <c r="K61" s="84"/>
       <c r="L61" s="84"/>
     </row>
-    <row r="62" spans="1:12" ht="98">
+    <row r="62" spans="1:12" ht="82.5">
       <c r="A62" s="83" t="s">
         <v>485</v>
       </c>
@@ -11823,7 +11839,7 @@
       <c r="K62" s="84"/>
       <c r="L62" s="84"/>
     </row>
-    <row r="63" spans="1:12" ht="130.69999999999999">
+    <row r="63" spans="1:12" ht="115.5">
       <c r="A63" s="83" t="s">
         <v>486</v>
       </c>
@@ -11853,7 +11869,7 @@
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
     </row>
-    <row r="64" spans="1:12" ht="98">
+    <row r="64" spans="1:12" ht="99">
       <c r="A64" s="83" t="s">
         <v>487</v>
       </c>
@@ -11883,7 +11899,7 @@
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
     </row>
-    <row r="65" spans="1:12" ht="98">
+    <row r="65" spans="1:12" ht="99">
       <c r="A65" s="83" t="s">
         <v>488</v>
       </c>
@@ -11913,7 +11929,7 @@
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
     </row>
-    <row r="66" spans="1:12" ht="98">
+    <row r="66" spans="1:12" ht="99">
       <c r="A66" s="83" t="s">
         <v>489</v>
       </c>
@@ -11943,7 +11959,7 @@
       <c r="K66" s="84"/>
       <c r="L66" s="84"/>
     </row>
-    <row r="67" spans="1:12" ht="81.7">
+    <row r="67" spans="1:12" ht="82.5">
       <c r="A67" s="83" t="s">
         <v>490</v>
       </c>
@@ -11973,7 +11989,7 @@
       <c r="K67" s="84"/>
       <c r="L67" s="84"/>
     </row>
-    <row r="68" spans="1:12" ht="81.7">
+    <row r="68" spans="1:12" ht="82.5">
       <c r="A68" s="83" t="s">
         <v>491</v>
       </c>
@@ -12003,7 +12019,7 @@
       <c r="K68" s="84"/>
       <c r="L68" s="84"/>
     </row>
-    <row r="69" spans="1:12" ht="114.35">
+    <row r="69" spans="1:12" ht="99">
       <c r="A69" s="83" t="s">
         <v>492</v>
       </c>
@@ -12033,7 +12049,7 @@
       <c r="K69" s="84"/>
       <c r="L69" s="84"/>
     </row>
-    <row r="70" spans="1:12" ht="98">
+    <row r="70" spans="1:12" ht="99">
       <c r="A70" s="83" t="s">
         <v>493</v>
       </c>
@@ -13272,6 +13288,12 @@
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -13279,12 +13301,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13297,47 +13313,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="34.46875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="35.41015625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.46875" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5859375" style="45" customWidth="1"/>
-    <col min="9" max="26" width="8.5859375" style="49" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="49"/>
+    <col min="1" max="1" width="18.375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="49" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="49" customWidth="1"/>
+    <col min="5" max="5" width="35.375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="45" customWidth="1"/>
+    <col min="9" max="26" width="8.625" style="49" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="190"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="97"/>
@@ -13357,12 +13373,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="94" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="95">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" s="95">
         <v>2</v>
@@ -13374,10 +13390,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="94" t="s">
         <v>32</v>
       </c>
@@ -13407,57 +13423,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="191" t="s">
+      <c r="D32" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="191" t="s">
+      <c r="E32" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="188" t="s">
+      <c r="F32" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="191" t="s">
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="186" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="192"/>
-      <c r="B33" s="192"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="188" t="s">
+      <c r="A33" s="187"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="189"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="188" t="s">
+      <c r="G33" s="183"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="189"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="192"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="187"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="192"/>
-      <c r="B34" s="192"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
       <c r="F34" s="87" t="s">
         <v>41</v>
       </c>
@@ -13476,25 +13492,25 @@
       <c r="K34" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="192"/>
+      <c r="L34" s="187"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="191" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
-      <c r="L35" s="187"/>
-    </row>
-    <row r="36" spans="1:12" ht="32.700000000000003">
+      <c r="B35" s="192"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="193"/>
+    </row>
+    <row r="36" spans="1:12" ht="33">
       <c r="A36" s="119" t="s">
         <v>567</v>
       </c>
@@ -13522,7 +13538,7 @@
       <c r="K36" s="124"/>
       <c r="L36" s="125"/>
     </row>
-    <row r="37" spans="1:12" ht="32.700000000000003">
+    <row r="37" spans="1:12" ht="33">
       <c r="A37" s="98" t="s">
         <v>568</v>
       </c>
@@ -13550,7 +13566,7 @@
       <c r="K37" s="96"/>
       <c r="L37" s="100"/>
     </row>
-    <row r="38" spans="1:12" ht="49">
+    <row r="38" spans="1:12" ht="49.5">
       <c r="A38" s="98" t="s">
         <v>569</v>
       </c>
@@ -13578,7 +13594,7 @@
       <c r="K38" s="96"/>
       <c r="L38" s="100"/>
     </row>
-    <row r="39" spans="1:12" ht="49">
+    <row r="39" spans="1:12" ht="49.5">
       <c r="A39" s="98" t="s">
         <v>570</v>
       </c>
@@ -13606,7 +13622,7 @@
       <c r="K39" s="96"/>
       <c r="L39" s="100"/>
     </row>
-    <row r="40" spans="1:12" ht="49">
+    <row r="40" spans="1:12" ht="49.5">
       <c r="A40" s="98" t="s">
         <v>571</v>
       </c>
@@ -13634,7 +13650,7 @@
       <c r="K40" s="96"/>
       <c r="L40" s="100"/>
     </row>
-    <row r="41" spans="1:12" ht="49">
+    <row r="41" spans="1:12" ht="49.5">
       <c r="A41" s="98" t="s">
         <v>572</v>
       </c>
@@ -13662,7 +13678,7 @@
       <c r="K41" s="96"/>
       <c r="L41" s="100"/>
     </row>
-    <row r="42" spans="1:12" ht="32.700000000000003">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="98" t="s">
         <v>573</v>
       </c>
@@ -13690,7 +13706,7 @@
       <c r="K42" s="96"/>
       <c r="L42" s="100"/>
     </row>
-    <row r="43" spans="1:12" ht="32.700000000000003">
+    <row r="43" spans="1:12" ht="33">
       <c r="A43" s="98" t="s">
         <v>574</v>
       </c>
@@ -13718,7 +13734,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="100"/>
     </row>
-    <row r="44" spans="1:12" ht="32.700000000000003">
+    <row r="44" spans="1:12" ht="33">
       <c r="A44" s="98" t="s">
         <v>575</v>
       </c>
@@ -13746,7 +13762,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="100"/>
     </row>
-    <row r="45" spans="1:12" ht="49">
+    <row r="45" spans="1:12" ht="49.5">
       <c r="A45" s="98" t="s">
         <v>576</v>
       </c>
@@ -13914,23 +13930,23 @@
       <c r="K50" s="96"/>
       <c r="L50" s="100"/>
     </row>
-    <row r="51" spans="1:12" ht="18.7" customHeight="1">
-      <c r="A51" s="182" t="s">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A51" s="188" t="s">
         <v>566</v>
       </c>
-      <c r="B51" s="183"/>
-      <c r="C51" s="183"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
-      <c r="J51" s="183"/>
-      <c r="K51" s="183"/>
-      <c r="L51" s="184"/>
-    </row>
-    <row r="52" spans="1:12" ht="32.700000000000003">
+      <c r="B51" s="189"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="189"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="189"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="189"/>
+      <c r="J51" s="189"/>
+      <c r="K51" s="189"/>
+      <c r="L51" s="190"/>
+    </row>
+    <row r="52" spans="1:12" ht="33">
       <c r="A52" s="126" t="s">
         <v>44</v>
       </c>
@@ -13960,7 +13976,7 @@
       <c r="K52" s="83"/>
       <c r="L52" s="127"/>
     </row>
-    <row r="53" spans="1:12" ht="32.700000000000003">
+    <row r="53" spans="1:12" ht="33">
       <c r="A53" s="126" t="s">
         <v>47</v>
       </c>
@@ -13990,7 +14006,7 @@
       <c r="K53" s="83"/>
       <c r="L53" s="127"/>
     </row>
-    <row r="54" spans="1:12" ht="32.700000000000003">
+    <row r="54" spans="1:12" ht="33">
       <c r="A54" s="126" t="s">
         <v>50</v>
       </c>
@@ -14020,7 +14036,7 @@
       <c r="K54" s="83"/>
       <c r="L54" s="127"/>
     </row>
-    <row r="55" spans="1:12" ht="16.350000000000001">
+    <row r="55" spans="1:12" ht="16.5">
       <c r="A55" s="126" t="s">
         <v>53</v>
       </c>
@@ -14050,7 +14066,7 @@
       <c r="K55" s="83"/>
       <c r="L55" s="127"/>
     </row>
-    <row r="56" spans="1:12" ht="32.700000000000003">
+    <row r="56" spans="1:12" ht="33">
       <c r="A56" s="126" t="s">
         <v>56</v>
       </c>
@@ -14080,7 +14096,7 @@
       <c r="K56" s="83"/>
       <c r="L56" s="127"/>
     </row>
-    <row r="57" spans="1:12" ht="32.700000000000003">
+    <row r="57" spans="1:12" ht="16.5">
       <c r="A57" s="126" t="s">
         <v>59</v>
       </c>
@@ -14110,7 +14126,7 @@
       <c r="K57" s="83"/>
       <c r="L57" s="127"/>
     </row>
-    <row r="58" spans="1:12" ht="32.700000000000003">
+    <row r="58" spans="1:12" ht="16.5">
       <c r="A58" s="126" t="s">
         <v>62</v>
       </c>
@@ -14140,7 +14156,7 @@
       <c r="K58" s="83"/>
       <c r="L58" s="127"/>
     </row>
-    <row r="59" spans="1:12" ht="32.700000000000003">
+    <row r="59" spans="1:12" ht="16.5">
       <c r="A59" s="126" t="s">
         <v>65</v>
       </c>
@@ -14170,7 +14186,7 @@
       <c r="K59" s="83"/>
       <c r="L59" s="127"/>
     </row>
-    <row r="60" spans="1:12" ht="32.700000000000003">
+    <row r="60" spans="1:12" ht="16.5">
       <c r="A60" s="126" t="s">
         <v>67</v>
       </c>
@@ -14200,7 +14216,7 @@
       <c r="K60" s="83"/>
       <c r="L60" s="127"/>
     </row>
-    <row r="61" spans="1:12" ht="32.700000000000003">
+    <row r="61" spans="1:12" ht="33">
       <c r="A61" s="126" t="s">
         <v>69</v>
       </c>
@@ -14230,7 +14246,7 @@
       <c r="K61" s="83"/>
       <c r="L61" s="127"/>
     </row>
-    <row r="62" spans="1:12" ht="32.700000000000003">
+    <row r="62" spans="1:12" ht="33">
       <c r="A62" s="126" t="s">
         <v>72</v>
       </c>
@@ -14260,7 +14276,7 @@
       <c r="K62" s="83"/>
       <c r="L62" s="127"/>
     </row>
-    <row r="63" spans="1:12" ht="32.700000000000003">
+    <row r="63" spans="1:12" ht="33">
       <c r="A63" s="126" t="s">
         <v>75</v>
       </c>
@@ -14290,7 +14306,7 @@
       <c r="K63" s="83"/>
       <c r="L63" s="127"/>
     </row>
-    <row r="64" spans="1:12" ht="32.700000000000003">
+    <row r="64" spans="1:12" ht="33">
       <c r="A64" s="126" t="s">
         <v>78</v>
       </c>
@@ -14320,7 +14336,7 @@
       <c r="K64" s="83"/>
       <c r="L64" s="127"/>
     </row>
-    <row r="65" spans="1:12" ht="32.700000000000003">
+    <row r="65" spans="1:12" ht="33">
       <c r="A65" s="126" t="s">
         <v>81</v>
       </c>
@@ -14350,7 +14366,7 @@
       <c r="K65" s="83"/>
       <c r="L65" s="127"/>
     </row>
-    <row r="66" spans="1:12" ht="32.700000000000003">
+    <row r="66" spans="1:12" ht="33">
       <c r="A66" s="126" t="s">
         <v>85</v>
       </c>
@@ -14380,7 +14396,7 @@
       <c r="K66" s="83"/>
       <c r="L66" s="127"/>
     </row>
-    <row r="67" spans="1:12" ht="32.700000000000003">
+    <row r="67" spans="1:12" ht="16.5">
       <c r="A67" s="126" t="s">
         <v>88</v>
       </c>
@@ -14410,7 +14426,7 @@
       <c r="K67" s="83"/>
       <c r="L67" s="127"/>
     </row>
-    <row r="68" spans="1:12" ht="32.700000000000003">
+    <row r="68" spans="1:12" ht="33">
       <c r="A68" s="126" t="s">
         <v>91</v>
       </c>
@@ -14440,7 +14456,7 @@
       <c r="K68" s="83"/>
       <c r="L68" s="127"/>
     </row>
-    <row r="69" spans="1:12" ht="33" thickBot="1">
+    <row r="69" spans="1:12" ht="33.75" thickBot="1">
       <c r="A69" s="128" t="s">
         <v>94</v>
       </c>
@@ -15418,6 +15434,12 @@
     <row r="1015" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -15425,12 +15447,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15443,47 +15459,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:L62"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="45.1171875" style="86" customWidth="1"/>
-    <col min="3" max="3" width="30.5859375" style="86" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="86" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.87890625" style="86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5859375" style="45" customWidth="1"/>
-    <col min="9" max="26" width="8.5859375" style="86" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="86"/>
+    <col min="1" max="1" width="18.375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="86" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="86" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="86" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="45" customWidth="1"/>
+    <col min="9" max="26" width="8.625" style="86" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="170"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="177"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="109"/>
@@ -15503,12 +15519,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="110" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="85">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C4" s="85">
         <v>3</v>
@@ -15520,10 +15536,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="110" t="s">
         <v>32</v>
       </c>
@@ -15553,57 +15569,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="171" t="s">
+      <c r="E32" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="168" t="s">
+      <c r="F32" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="171" t="s">
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="168" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="168" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="169"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="168" t="s">
+      <c r="G33" s="176"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="172"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="169"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="173"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
       <c r="F34" s="46" t="s">
         <v>41</v>
       </c>
@@ -15622,25 +15638,25 @@
       <c r="K34" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="173"/>
+      <c r="L34" s="170"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="195" t="s">
+      <c r="A35" s="197" t="s">
         <v>605</v>
       </c>
-      <c r="B35" s="196"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="196"/>
-      <c r="L35" s="197"/>
-    </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="199"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="75" t="s">
         <v>606</v>
       </c>
@@ -15668,7 +15684,7 @@
       <c r="K36" s="114"/>
       <c r="L36" s="112"/>
     </row>
-    <row r="37" spans="1:12" ht="33" thickBot="1">
+    <row r="37" spans="1:12" ht="33.75" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>607</v>
       </c>
@@ -15696,7 +15712,7 @@
       <c r="K37" s="114"/>
       <c r="L37" s="112"/>
     </row>
-    <row r="38" spans="1:12" ht="49.35" thickBot="1">
+    <row r="38" spans="1:12" ht="50.25" thickBot="1">
       <c r="A38" s="75" t="s">
         <v>608</v>
       </c>
@@ -15724,7 +15740,7 @@
       <c r="K38" s="114"/>
       <c r="L38" s="112"/>
     </row>
-    <row r="39" spans="1:12" ht="65.7" thickBot="1">
+    <row r="39" spans="1:12" ht="66.75" thickBot="1">
       <c r="A39" s="75" t="s">
         <v>609</v>
       </c>
@@ -15752,7 +15768,7 @@
       <c r="K39" s="114"/>
       <c r="L39" s="112"/>
     </row>
-    <row r="40" spans="1:12" ht="33" thickBot="1">
+    <row r="40" spans="1:12" ht="33.75" thickBot="1">
       <c r="A40" s="75" t="s">
         <v>610</v>
       </c>
@@ -15780,7 +15796,7 @@
       <c r="K40" s="114"/>
       <c r="L40" s="112"/>
     </row>
-    <row r="41" spans="1:12" ht="33" thickBot="1">
+    <row r="41" spans="1:12" ht="33.75" thickBot="1">
       <c r="A41" s="75" t="s">
         <v>611</v>
       </c>
@@ -15808,7 +15824,7 @@
       <c r="K41" s="114"/>
       <c r="L41" s="112"/>
     </row>
-    <row r="42" spans="1:12" ht="33" thickBot="1">
+    <row r="42" spans="1:12" ht="33.75" thickBot="1">
       <c r="A42" s="75" t="s">
         <v>612</v>
       </c>
@@ -15836,7 +15852,7 @@
       <c r="K42" s="114"/>
       <c r="L42" s="112"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="75" t="s">
         <v>613</v>
       </c>
@@ -15864,7 +15880,7 @@
       <c r="K43" s="114"/>
       <c r="L43" s="112"/>
     </row>
-    <row r="44" spans="1:12" ht="33" thickBot="1">
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="75" t="s">
         <v>614</v>
       </c>
@@ -15892,7 +15908,7 @@
       <c r="K44" s="114"/>
       <c r="L44" s="112"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickBot="1">
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="75" t="s">
         <v>615</v>
       </c>
@@ -15920,7 +15936,7 @@
       <c r="K45" s="114"/>
       <c r="L45" s="112"/>
     </row>
-    <row r="46" spans="1:12" ht="33" thickBot="1">
+    <row r="46" spans="1:12" ht="33.75" thickBot="1">
       <c r="A46" s="75" t="s">
         <v>616</v>
       </c>
@@ -15948,7 +15964,7 @@
       <c r="K46" s="114"/>
       <c r="L46" s="112"/>
     </row>
-    <row r="47" spans="1:12" ht="33" thickBot="1">
+    <row r="47" spans="1:12" ht="33.75" thickBot="1">
       <c r="A47" s="75" t="s">
         <v>617</v>
       </c>
@@ -15976,7 +15992,7 @@
       <c r="K47" s="114"/>
       <c r="L47" s="112"/>
     </row>
-    <row r="48" spans="1:12" ht="33" thickBot="1">
+    <row r="48" spans="1:12" ht="33.75" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>618</v>
       </c>
@@ -16004,7 +16020,7 @@
       <c r="K48" s="114"/>
       <c r="L48" s="112"/>
     </row>
-    <row r="49" spans="1:12" ht="33" thickBot="1">
+    <row r="49" spans="1:12" ht="33.75" thickBot="1">
       <c r="A49" s="75" t="s">
         <v>619</v>
       </c>
@@ -16032,7 +16048,7 @@
       <c r="K49" s="114"/>
       <c r="L49" s="112"/>
     </row>
-    <row r="50" spans="1:12" ht="33" thickBot="1">
+    <row r="50" spans="1:12" ht="33.75" thickBot="1">
       <c r="A50" s="75" t="s">
         <v>620</v>
       </c>
@@ -16088,7 +16104,7 @@
       <c r="K51" s="114"/>
       <c r="L51" s="112"/>
     </row>
-    <row r="52" spans="1:12" ht="33" thickBot="1">
+    <row r="52" spans="1:12" ht="33.75" thickBot="1">
       <c r="A52" s="75" t="s">
         <v>622</v>
       </c>
@@ -16116,7 +16132,7 @@
       <c r="K52" s="114"/>
       <c r="L52" s="112"/>
     </row>
-    <row r="53" spans="1:12" ht="33" thickBot="1">
+    <row r="53" spans="1:12" ht="33.75" thickBot="1">
       <c r="A53" s="75" t="s">
         <v>623</v>
       </c>
@@ -16144,7 +16160,7 @@
       <c r="K53" s="114"/>
       <c r="L53" s="112"/>
     </row>
-    <row r="54" spans="1:12" ht="33" thickBot="1">
+    <row r="54" spans="1:12" ht="33.75" thickBot="1">
       <c r="A54" s="75" t="s">
         <v>624</v>
       </c>
@@ -16172,7 +16188,7 @@
       <c r="K54" s="114"/>
       <c r="L54" s="112"/>
     </row>
-    <row r="55" spans="1:12" ht="33" thickBot="1">
+    <row r="55" spans="1:12" ht="33.75" thickBot="1">
       <c r="A55" s="75" t="s">
         <v>625</v>
       </c>
@@ -16228,7 +16244,7 @@
       <c r="K56" s="114"/>
       <c r="L56" s="112"/>
     </row>
-    <row r="57" spans="1:12" ht="33" thickBot="1">
+    <row r="57" spans="1:12" ht="33.75" thickBot="1">
       <c r="A57" s="75" t="s">
         <v>627</v>
       </c>
@@ -16256,7 +16272,7 @@
       <c r="K57" s="114"/>
       <c r="L57" s="112"/>
     </row>
-    <row r="58" spans="1:12" ht="65.7" thickBot="1">
+    <row r="58" spans="1:12" ht="66.75" thickBot="1">
       <c r="A58" s="75" t="s">
         <v>628</v>
       </c>
@@ -16284,7 +16300,7 @@
       <c r="K58" s="114"/>
       <c r="L58" s="112"/>
     </row>
-    <row r="59" spans="1:12" ht="65.7" thickBot="1">
+    <row r="59" spans="1:12" ht="66.75" thickBot="1">
       <c r="A59" s="75" t="s">
         <v>629</v>
       </c>
@@ -16312,7 +16328,7 @@
       <c r="K59" s="114"/>
       <c r="L59" s="112"/>
     </row>
-    <row r="60" spans="1:12" ht="49.35" thickBot="1">
+    <row r="60" spans="1:12" ht="50.25" thickBot="1">
       <c r="A60" s="75" t="s">
         <v>630</v>
       </c>
@@ -16340,7 +16356,7 @@
       <c r="K60" s="114"/>
       <c r="L60" s="112"/>
     </row>
-    <row r="61" spans="1:12" ht="33" thickBot="1">
+    <row r="61" spans="1:12" ht="33.75" thickBot="1">
       <c r="A61" s="75" t="s">
         <v>631</v>
       </c>
@@ -16369,20 +16385,20 @@
       <c r="L61" s="112"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="195" t="s">
+      <c r="A62" s="197" t="s">
         <v>632</v>
       </c>
-      <c r="B62" s="196"/>
-      <c r="C62" s="196"/>
-      <c r="D62" s="196"/>
-      <c r="E62" s="196"/>
-      <c r="F62" s="196"/>
-      <c r="G62" s="196"/>
-      <c r="H62" s="196"/>
-      <c r="I62" s="196"/>
-      <c r="J62" s="196"/>
-      <c r="K62" s="196"/>
-      <c r="L62" s="197"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="198"/>
+      <c r="D62" s="198"/>
+      <c r="E62" s="198"/>
+      <c r="F62" s="198"/>
+      <c r="G62" s="198"/>
+      <c r="H62" s="198"/>
+      <c r="I62" s="198"/>
+      <c r="J62" s="198"/>
+      <c r="K62" s="198"/>
+      <c r="L62" s="199"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="103" t="s">
@@ -18005,6 +18021,12 @@
     <row r="1014" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -18012,12 +18034,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18030,46 +18046,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="30.46875" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="67" customWidth="1"/>
-    <col min="7" max="7" width="14.41015625" style="67" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="67"/>
+    <col min="1" max="1" width="18.375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="67" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="67" customWidth="1"/>
+    <col min="8" max="26" width="8.625" style="67" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="176"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.7" thickBot="1">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
       <c r="A3" s="68"/>
@@ -18089,12 +18105,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.7" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="65">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="65">
         <v>2</v>
@@ -18106,10 +18122,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.7" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
@@ -18139,57 +18155,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="216" t="s">
+      <c r="B32" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="216" t="s">
+      <c r="C32" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="216" t="s">
+      <c r="D32" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="216" t="s">
+      <c r="E32" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="206" t="s">
+      <c r="F32" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="209" t="s">
+      <c r="G32" s="213"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="215" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="214"/>
-      <c r="B33" s="217"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="212" t="s">
+      <c r="A33" s="201"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="175"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="212" t="s">
+      <c r="G33" s="165"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="210"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="216"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="215"/>
-      <c r="B34" s="218"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
+      <c r="A34" s="202"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
       <c r="F34" s="132" t="s">
         <v>41</v>
       </c>
@@ -18208,25 +18224,25 @@
       <c r="K34" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="211"/>
+      <c r="L34" s="217"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="203" t="s">
+      <c r="A35" s="209" t="s">
         <v>667</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="205"/>
-    </row>
-    <row r="36" spans="1:12" ht="32.700000000000003">
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="211"/>
+    </row>
+    <row r="36" spans="1:12" ht="33">
       <c r="A36" s="146" t="s">
         <v>668</v>
       </c>
@@ -18254,7 +18270,7 @@
       <c r="K36" s="74"/>
       <c r="L36" s="133"/>
     </row>
-    <row r="37" spans="1:12" ht="32.700000000000003">
+    <row r="37" spans="1:12" ht="33">
       <c r="A37" s="146" t="s">
         <v>669</v>
       </c>
@@ -18282,7 +18298,7 @@
       <c r="K37" s="74"/>
       <c r="L37" s="133"/>
     </row>
-    <row r="38" spans="1:12" ht="49">
+    <row r="38" spans="1:12" ht="49.5">
       <c r="A38" s="146" t="s">
         <v>670</v>
       </c>
@@ -18310,7 +18326,7 @@
       <c r="K38" s="74"/>
       <c r="L38" s="133"/>
     </row>
-    <row r="39" spans="1:12" ht="32.700000000000003">
+    <row r="39" spans="1:12" ht="33">
       <c r="A39" s="146" t="s">
         <v>671</v>
       </c>
@@ -18338,7 +18354,7 @@
       <c r="K39" s="74"/>
       <c r="L39" s="133"/>
     </row>
-    <row r="40" spans="1:12" ht="32.700000000000003">
+    <row r="40" spans="1:12" ht="33">
       <c r="A40" s="146" t="s">
         <v>672</v>
       </c>
@@ -18366,7 +18382,7 @@
       <c r="K40" s="74"/>
       <c r="L40" s="133"/>
     </row>
-    <row r="41" spans="1:12" ht="32.700000000000003">
+    <row r="41" spans="1:12" ht="33">
       <c r="A41" s="146" t="s">
         <v>673</v>
       </c>
@@ -18394,7 +18410,7 @@
       <c r="K41" s="74"/>
       <c r="L41" s="133"/>
     </row>
-    <row r="42" spans="1:12" ht="32.700000000000003">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="146" t="s">
         <v>674</v>
       </c>
@@ -18422,7 +18438,7 @@
       <c r="K42" s="74"/>
       <c r="L42" s="133"/>
     </row>
-    <row r="43" spans="1:12" ht="32.700000000000003">
+    <row r="43" spans="1:12" ht="33">
       <c r="A43" s="146" t="s">
         <v>675</v>
       </c>
@@ -18450,7 +18466,7 @@
       <c r="K43" s="74"/>
       <c r="L43" s="133"/>
     </row>
-    <row r="44" spans="1:12" ht="32.700000000000003">
+    <row r="44" spans="1:12" ht="33">
       <c r="A44" s="146" t="s">
         <v>676</v>
       </c>
@@ -18478,7 +18494,7 @@
       <c r="K44" s="74"/>
       <c r="L44" s="133"/>
     </row>
-    <row r="45" spans="1:12" ht="32.700000000000003">
+    <row r="45" spans="1:12" ht="33">
       <c r="A45" s="146" t="s">
         <v>677</v>
       </c>
@@ -18506,7 +18522,7 @@
       <c r="K45" s="74"/>
       <c r="L45" s="133"/>
     </row>
-    <row r="46" spans="1:12" ht="32.700000000000003">
+    <row r="46" spans="1:12" ht="33">
       <c r="A46" s="146" t="s">
         <v>678</v>
       </c>
@@ -18534,7 +18550,7 @@
       <c r="K46" s="74"/>
       <c r="L46" s="133"/>
     </row>
-    <row r="47" spans="1:12" ht="32.700000000000003">
+    <row r="47" spans="1:12" ht="33">
       <c r="A47" s="146" t="s">
         <v>679</v>
       </c>
@@ -18562,7 +18578,7 @@
       <c r="K47" s="74"/>
       <c r="L47" s="133"/>
     </row>
-    <row r="48" spans="1:12" ht="32.700000000000003">
+    <row r="48" spans="1:12" ht="33">
       <c r="A48" s="146" t="s">
         <v>680</v>
       </c>
@@ -18590,7 +18606,7 @@
       <c r="K48" s="74"/>
       <c r="L48" s="133"/>
     </row>
-    <row r="49" spans="1:12" ht="65.349999999999994">
+    <row r="49" spans="1:12" ht="66">
       <c r="A49" s="146" t="s">
         <v>681</v>
       </c>
@@ -18618,7 +18634,7 @@
       <c r="K49" s="74"/>
       <c r="L49" s="133"/>
     </row>
-    <row r="50" spans="1:12" ht="65.349999999999994">
+    <row r="50" spans="1:12" ht="66">
       <c r="A50" s="146" t="s">
         <v>682</v>
       </c>
@@ -18646,7 +18662,7 @@
       <c r="K50" s="74"/>
       <c r="L50" s="133"/>
     </row>
-    <row r="51" spans="1:12" ht="49">
+    <row r="51" spans="1:12" ht="49.5">
       <c r="A51" s="146" t="s">
         <v>683</v>
       </c>
@@ -18675,22 +18691,22 @@
       <c r="L51" s="133"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="206" t="s">
         <v>666</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="202"/>
-    </row>
-    <row r="53" spans="1:12" ht="49">
+      <c r="B52" s="207"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="207"/>
+      <c r="L52" s="208"/>
+    </row>
+    <row r="53" spans="1:12" ht="49.5">
       <c r="A53" s="134" t="s">
         <v>44</v>
       </c>
@@ -18720,7 +18736,7 @@
       <c r="K53" s="70"/>
       <c r="L53" s="135"/>
     </row>
-    <row r="54" spans="1:12" ht="49">
+    <row r="54" spans="1:12" ht="49.5">
       <c r="A54" s="134" t="s">
         <v>47</v>
       </c>
@@ -18750,7 +18766,7 @@
       <c r="K54" s="70"/>
       <c r="L54" s="135"/>
     </row>
-    <row r="55" spans="1:12" ht="49">
+    <row r="55" spans="1:12" ht="49.5">
       <c r="A55" s="134" t="s">
         <v>50</v>
       </c>
@@ -18780,7 +18796,7 @@
       <c r="K55" s="70"/>
       <c r="L55" s="135"/>
     </row>
-    <row r="56" spans="1:12" ht="49">
+    <row r="56" spans="1:12" ht="49.5">
       <c r="A56" s="134" t="s">
         <v>53</v>
       </c>
@@ -18810,7 +18826,7 @@
       <c r="K56" s="70"/>
       <c r="L56" s="135"/>
     </row>
-    <row r="57" spans="1:12" ht="32.700000000000003">
+    <row r="57" spans="1:12" ht="33">
       <c r="A57" s="134" t="s">
         <v>56</v>
       </c>
@@ -18840,7 +18856,7 @@
       <c r="K57" s="70"/>
       <c r="L57" s="135"/>
     </row>
-    <row r="58" spans="1:12" ht="49">
+    <row r="58" spans="1:12" ht="49.5">
       <c r="A58" s="134" t="s">
         <v>59</v>
       </c>
@@ -18870,7 +18886,7 @@
       <c r="K58" s="70"/>
       <c r="L58" s="135"/>
     </row>
-    <row r="59" spans="1:12" ht="49">
+    <row r="59" spans="1:12" ht="49.5">
       <c r="A59" s="134" t="s">
         <v>62</v>
       </c>
@@ -18900,7 +18916,7 @@
       <c r="K59" s="70"/>
       <c r="L59" s="135"/>
     </row>
-    <row r="60" spans="1:12" ht="32.700000000000003">
+    <row r="60" spans="1:12" ht="33">
       <c r="A60" s="134" t="s">
         <v>65</v>
       </c>
@@ -18930,7 +18946,7 @@
       <c r="K60" s="70"/>
       <c r="L60" s="135"/>
     </row>
-    <row r="61" spans="1:12" ht="32.700000000000003">
+    <row r="61" spans="1:12" ht="33">
       <c r="A61" s="134" t="s">
         <v>67</v>
       </c>
@@ -18960,7 +18976,7 @@
       <c r="K61" s="70"/>
       <c r="L61" s="135"/>
     </row>
-    <row r="62" spans="1:12" ht="32.700000000000003">
+    <row r="62" spans="1:12" ht="33">
       <c r="A62" s="134" t="s">
         <v>69</v>
       </c>
@@ -18990,7 +19006,7 @@
       <c r="K62" s="70"/>
       <c r="L62" s="135"/>
     </row>
-    <row r="63" spans="1:12" ht="32.700000000000003">
+    <row r="63" spans="1:12" ht="33">
       <c r="A63" s="134" t="s">
         <v>72</v>
       </c>
@@ -19020,7 +19036,7 @@
       <c r="K63" s="70"/>
       <c r="L63" s="135"/>
     </row>
-    <row r="64" spans="1:12" ht="32.700000000000003">
+    <row r="64" spans="1:12" ht="33">
       <c r="A64" s="134" t="s">
         <v>75</v>
       </c>
@@ -19050,7 +19066,7 @@
       <c r="K64" s="70"/>
       <c r="L64" s="135"/>
     </row>
-    <row r="65" spans="1:12" ht="32.700000000000003">
+    <row r="65" spans="1:12" ht="33">
       <c r="A65" s="134" t="s">
         <v>78</v>
       </c>
@@ -20061,6 +20077,12 @@
     <row r="1015" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -20068,12 +20090,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20086,47 +20102,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.9375" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.46875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5859375" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.5859375" style="36" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="36"/>
+    <col min="3" max="3" width="26.75" style="36" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.625" style="36" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="227"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="227"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="38"/>
@@ -20146,12 +20162,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="42">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4" s="42">
         <v>3</v>
@@ -20163,10 +20179,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
@@ -20196,57 +20212,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="191" t="s">
+      <c r="D32" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="191" t="s">
+      <c r="E32" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="225" t="s">
+      <c r="F32" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="191" t="s">
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="186" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="228"/>
-      <c r="B33" s="228"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="225" t="s">
+      <c r="A33" s="223"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="226"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="225" t="s">
+      <c r="G33" s="220"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
-      <c r="L33" s="228"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="221"/>
+      <c r="L33" s="223"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="229"/>
-      <c r="B34" s="229"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="229"/>
+      <c r="A34" s="224"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
       <c r="F34" s="46" t="s">
         <v>41</v>
       </c>
@@ -20265,25 +20281,25 @@
       <c r="K34" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="229"/>
-    </row>
-    <row r="35" spans="1:12" ht="16.7" thickBot="1">
-      <c r="A35" s="222" t="s">
+      <c r="L34" s="224"/>
+    </row>
+    <row r="35" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A35" s="228" t="s">
         <v>702</v>
       </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="223"/>
-      <c r="L35" s="224"/>
-    </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+      <c r="B35" s="229"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="230"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="50" t="s">
         <v>703</v>
       </c>
@@ -20309,7 +20325,7 @@
       <c r="K36" s="144"/>
       <c r="L36" s="142"/>
     </row>
-    <row r="37" spans="1:12" ht="33" thickBot="1">
+    <row r="37" spans="1:12" ht="33.75" thickBot="1">
       <c r="A37" s="50" t="s">
         <v>704</v>
       </c>
@@ -20335,7 +20351,7 @@
       <c r="K37" s="144"/>
       <c r="L37" s="142"/>
     </row>
-    <row r="38" spans="1:12" ht="33" thickBot="1">
+    <row r="38" spans="1:12" ht="33.75" thickBot="1">
       <c r="A38" s="50" t="s">
         <v>705</v>
       </c>
@@ -20361,7 +20377,7 @@
       <c r="K38" s="144"/>
       <c r="L38" s="142"/>
     </row>
-    <row r="39" spans="1:12" ht="33" thickBot="1">
+    <row r="39" spans="1:12" ht="33.75" thickBot="1">
       <c r="A39" s="50" t="s">
         <v>706</v>
       </c>
@@ -20387,7 +20403,7 @@
       <c r="K39" s="144"/>
       <c r="L39" s="142"/>
     </row>
-    <row r="40" spans="1:12" ht="33" thickBot="1">
+    <row r="40" spans="1:12" ht="33.75" thickBot="1">
       <c r="A40" s="50" t="s">
         <v>707</v>
       </c>
@@ -20413,7 +20429,7 @@
       <c r="K40" s="144"/>
       <c r="L40" s="142"/>
     </row>
-    <row r="41" spans="1:12" ht="33" thickBot="1">
+    <row r="41" spans="1:12" ht="33.75" thickBot="1">
       <c r="A41" s="50" t="s">
         <v>708</v>
       </c>
@@ -20439,7 +20455,7 @@
       <c r="K41" s="144"/>
       <c r="L41" s="142"/>
     </row>
-    <row r="42" spans="1:12" ht="33" thickBot="1">
+    <row r="42" spans="1:12" ht="33.75" thickBot="1">
       <c r="A42" s="50" t="s">
         <v>709</v>
       </c>
@@ -20465,7 +20481,7 @@
       <c r="K42" s="144"/>
       <c r="L42" s="142"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="50" t="s">
         <v>710</v>
       </c>
@@ -20491,7 +20507,7 @@
       <c r="K43" s="144"/>
       <c r="L43" s="142"/>
     </row>
-    <row r="44" spans="1:12" ht="33" thickBot="1">
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="50" t="s">
         <v>711</v>
       </c>
@@ -20517,7 +20533,7 @@
       <c r="K44" s="144"/>
       <c r="L44" s="142"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickBot="1">
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="50" t="s">
         <v>712</v>
       </c>
@@ -20543,7 +20559,7 @@
       <c r="K45" s="144"/>
       <c r="L45" s="142"/>
     </row>
-    <row r="46" spans="1:12" ht="33" thickBot="1">
+    <row r="46" spans="1:12" ht="33.75" thickBot="1">
       <c r="A46" s="50" t="s">
         <v>713</v>
       </c>
@@ -20569,7 +20585,7 @@
       <c r="K46" s="144"/>
       <c r="L46" s="142"/>
     </row>
-    <row r="47" spans="1:12" ht="33" thickBot="1">
+    <row r="47" spans="1:12" ht="33.75" thickBot="1">
       <c r="A47" s="50" t="s">
         <v>714</v>
       </c>
@@ -20595,7 +20611,7 @@
       <c r="K47" s="144"/>
       <c r="L47" s="142"/>
     </row>
-    <row r="48" spans="1:12" ht="33" thickBot="1">
+    <row r="48" spans="1:12" ht="33.75" thickBot="1">
       <c r="A48" s="50" t="s">
         <v>715</v>
       </c>
@@ -20621,7 +20637,7 @@
       <c r="K48" s="144"/>
       <c r="L48" s="142"/>
     </row>
-    <row r="49" spans="1:12" ht="49.35" thickBot="1">
+    <row r="49" spans="1:12" ht="50.25" thickBot="1">
       <c r="A49" s="50" t="s">
         <v>716</v>
       </c>
@@ -20647,7 +20663,7 @@
       <c r="K49" s="144"/>
       <c r="L49" s="142"/>
     </row>
-    <row r="50" spans="1:12" ht="49.35" thickBot="1">
+    <row r="50" spans="1:12" ht="50.25" thickBot="1">
       <c r="A50" s="50" t="s">
         <v>717</v>
       </c>
@@ -20673,7 +20689,7 @@
       <c r="K50" s="144"/>
       <c r="L50" s="142"/>
     </row>
-    <row r="51" spans="1:12" ht="49.35" thickBot="1">
+    <row r="51" spans="1:12" ht="50.25" thickBot="1">
       <c r="A51" s="50" t="s">
         <v>718</v>
       </c>
@@ -20699,7 +20715,7 @@
       <c r="K51" s="144"/>
       <c r="L51" s="142"/>
     </row>
-    <row r="52" spans="1:12" ht="33" thickBot="1">
+    <row r="52" spans="1:12" ht="33.75" thickBot="1">
       <c r="A52" s="50" t="s">
         <v>719</v>
       </c>
@@ -20725,7 +20741,7 @@
       <c r="K52" s="144"/>
       <c r="L52" s="142"/>
     </row>
-    <row r="53" spans="1:12" ht="33" thickBot="1">
+    <row r="53" spans="1:12" ht="33.75" thickBot="1">
       <c r="A53" s="50" t="s">
         <v>720</v>
       </c>
@@ -20751,7 +20767,7 @@
       <c r="K53" s="144"/>
       <c r="L53" s="142"/>
     </row>
-    <row r="54" spans="1:12" ht="33" thickBot="1">
+    <row r="54" spans="1:12" ht="33.75" thickBot="1">
       <c r="A54" s="50" t="s">
         <v>721</v>
       </c>
@@ -20777,7 +20793,7 @@
       <c r="K54" s="144"/>
       <c r="L54" s="142"/>
     </row>
-    <row r="55" spans="1:12" ht="33" thickBot="1">
+    <row r="55" spans="1:12" ht="33.75" thickBot="1">
       <c r="A55" s="50" t="s">
         <v>722</v>
       </c>
@@ -20803,7 +20819,7 @@
       <c r="K55" s="144"/>
       <c r="L55" s="142"/>
     </row>
-    <row r="56" spans="1:12" ht="49.35" thickBot="1">
+    <row r="56" spans="1:12" ht="50.25" thickBot="1">
       <c r="A56" s="50" t="s">
         <v>745</v>
       </c>
@@ -20829,7 +20845,7 @@
       <c r="K56" s="144"/>
       <c r="L56" s="142"/>
     </row>
-    <row r="57" spans="1:12" ht="49.35" thickBot="1">
+    <row r="57" spans="1:12" ht="50.25" thickBot="1">
       <c r="A57" s="50" t="s">
         <v>746</v>
       </c>
@@ -20855,7 +20871,7 @@
       <c r="K57" s="144"/>
       <c r="L57" s="142"/>
     </row>
-    <row r="58" spans="1:12" ht="33" thickBot="1">
+    <row r="58" spans="1:12" ht="33.75" thickBot="1">
       <c r="A58" s="50" t="s">
         <v>757</v>
       </c>
@@ -20882,22 +20898,22 @@
       <c r="L58" s="142"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A59" s="219" t="s">
+      <c r="A59" s="225" t="s">
         <v>747</v>
       </c>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="220"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="220"/>
-      <c r="J59" s="220"/>
-      <c r="K59" s="220"/>
-      <c r="L59" s="221"/>
-    </row>
-    <row r="60" spans="1:12" ht="114.7" thickBot="1">
+      <c r="B59" s="226"/>
+      <c r="C59" s="226"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="226"/>
+      <c r="J59" s="226"/>
+      <c r="K59" s="226"/>
+      <c r="L59" s="227"/>
+    </row>
+    <row r="60" spans="1:12" ht="116.25" thickBot="1">
       <c r="A60" s="116" t="s">
         <v>44</v>
       </c>
@@ -20927,7 +20943,7 @@
       <c r="K60" s="61"/>
       <c r="L60" s="61"/>
     </row>
-    <row r="61" spans="1:12" ht="114.7" thickBot="1">
+    <row r="61" spans="1:12" ht="116.25" thickBot="1">
       <c r="A61" s="27" t="s">
         <v>47</v>
       </c>
@@ -20957,7 +20973,7 @@
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
     </row>
-    <row r="62" spans="1:12" ht="180" thickBot="1">
+    <row r="62" spans="1:12" ht="182.25" thickBot="1">
       <c r="A62" s="27" t="s">
         <v>50</v>
       </c>
@@ -20987,7 +21003,7 @@
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
     </row>
-    <row r="63" spans="1:12" ht="180" thickBot="1">
+    <row r="63" spans="1:12" ht="182.25" thickBot="1">
       <c r="A63" s="27" t="s">
         <v>53</v>
       </c>
@@ -21017,7 +21033,7 @@
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
     </row>
-    <row r="64" spans="1:12" ht="180" thickBot="1">
+    <row r="64" spans="1:12" ht="182.25" thickBot="1">
       <c r="A64" s="27" t="s">
         <v>56</v>
       </c>
@@ -21998,6 +22014,12 @@
     <row r="1013" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -22005,12 +22027,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -22025,15 +22041,15 @@
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
-    <col min="2" max="2" width="28.1171875" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" customWidth="1"/>
-    <col min="7" max="26" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
@@ -22043,22 +22059,22 @@
       <c r="B1" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="234"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="237"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="237"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -22078,7 +22094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
@@ -22098,7 +22114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
@@ -22128,57 +22144,57 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="235" t="s">
+      <c r="A32" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="235" t="s">
+      <c r="B32" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="235" t="s">
+      <c r="C32" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="235" t="s">
+      <c r="D32" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="235" t="s">
+      <c r="E32" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="232" t="s">
+      <c r="F32" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="233"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="235" t="s">
+      <c r="G32" s="236"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="237"/>
+      <c r="L32" s="232" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="236"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="232" t="s">
+      <c r="A33" s="233"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="235" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="233"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="232" t="s">
+      <c r="G33" s="236"/>
+      <c r="H33" s="237"/>
+      <c r="I33" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="233"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="233"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="237"/>
-      <c r="B34" s="237"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="237"/>
-      <c r="E34" s="237"/>
+      <c r="A34" s="234"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
       <c r="F34" s="21" t="s">
         <v>41</v>
       </c>
@@ -22197,7 +22213,7 @@
       <c r="K34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="237"/>
+      <c r="L34" s="234"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
@@ -23180,17 +23196,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -23201,46 +23217,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N1031"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="41.52734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.703125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="26.5859375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="23.5859375" style="67" customWidth="1"/>
-    <col min="7" max="7" width="11.52734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="8.5859375" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="12.5859375" style="67"/>
+    <col min="1" max="1" width="18.375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="45" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="8.625" style="67" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="176"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.350000000000001">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1">
       <c r="A3" s="68"/>
@@ -23260,12 +23276,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.350000000000001">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="43">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C4" s="43">
         <v>1</v>
@@ -23277,10 +23293,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.350000000000001">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
@@ -23312,7 +23328,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="168" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="241" t="s">
@@ -23327,35 +23343,35 @@
       <c r="E32" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="171" t="s">
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="168" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="217"/>
+      <c r="A33" s="204"/>
       <c r="B33" s="242"/>
       <c r="C33" s="242"/>
       <c r="D33" s="242"/>
       <c r="E33" s="242"/>
-      <c r="F33" s="212" t="s">
+      <c r="F33" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="175"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="212" t="s">
+      <c r="G33" s="165"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="217"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="204"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="240"/>
@@ -23384,22 +23400,22 @@
       <c r="L34" s="240"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="195" t="s">
+      <c r="A35" s="197" t="s">
         <v>761</v>
       </c>
-      <c r="B35" s="196"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="196"/>
-      <c r="L35" s="197"/>
-    </row>
-    <row r="36" spans="1:12" ht="33" thickBot="1">
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="199"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" thickBot="1">
       <c r="A36" s="152" t="s">
         <v>763</v>
       </c>
@@ -23427,7 +23443,7 @@
       <c r="K36" s="151"/>
       <c r="L36" s="153"/>
     </row>
-    <row r="37" spans="1:12" ht="33" thickBot="1">
+    <row r="37" spans="1:12" ht="33.75" thickBot="1">
       <c r="A37" s="152" t="s">
         <v>764</v>
       </c>
@@ -23455,7 +23471,7 @@
       <c r="K37" s="151"/>
       <c r="L37" s="153"/>
     </row>
-    <row r="38" spans="1:12" ht="33" thickBot="1">
+    <row r="38" spans="1:12" ht="33.75" thickBot="1">
       <c r="A38" s="152" t="s">
         <v>765</v>
       </c>
@@ -23483,7 +23499,7 @@
       <c r="K38" s="151"/>
       <c r="L38" s="153"/>
     </row>
-    <row r="39" spans="1:12" ht="16.7" thickBot="1">
+    <row r="39" spans="1:12" ht="17.25" thickBot="1">
       <c r="A39" s="152" t="s">
         <v>766</v>
       </c>
@@ -23511,7 +23527,7 @@
       <c r="K39" s="151"/>
       <c r="L39" s="153"/>
     </row>
-    <row r="40" spans="1:12" ht="16.7" thickBot="1">
+    <row r="40" spans="1:12" ht="17.25" thickBot="1">
       <c r="A40" s="152" t="s">
         <v>767</v>
       </c>
@@ -23539,7 +23555,7 @@
       <c r="K40" s="151"/>
       <c r="L40" s="153"/>
     </row>
-    <row r="41" spans="1:12" ht="49.35" thickBot="1">
+    <row r="41" spans="1:12" ht="50.25" thickBot="1">
       <c r="A41" s="152" t="s">
         <v>768</v>
       </c>
@@ -23567,7 +23583,7 @@
       <c r="K41" s="151"/>
       <c r="L41" s="153"/>
     </row>
-    <row r="42" spans="1:12" ht="33" thickBot="1">
+    <row r="42" spans="1:12" ht="33.75" thickBot="1">
       <c r="A42" s="152" t="s">
         <v>769</v>
       </c>
@@ -23595,7 +23611,7 @@
       <c r="K42" s="151"/>
       <c r="L42" s="153"/>
     </row>
-    <row r="43" spans="1:12" ht="33" thickBot="1">
+    <row r="43" spans="1:12" ht="33.75" thickBot="1">
       <c r="A43" s="152" t="s">
         <v>770</v>
       </c>
@@ -23623,7 +23639,7 @@
       <c r="K43" s="151"/>
       <c r="L43" s="153"/>
     </row>
-    <row r="44" spans="1:12" ht="33" thickBot="1">
+    <row r="44" spans="1:12" ht="33.75" thickBot="1">
       <c r="A44" s="152" t="s">
         <v>771</v>
       </c>
@@ -23651,7 +23667,7 @@
       <c r="K44" s="151"/>
       <c r="L44" s="153"/>
     </row>
-    <row r="45" spans="1:12" ht="33" thickBot="1">
+    <row r="45" spans="1:12" ht="33.75" thickBot="1">
       <c r="A45" s="152" t="s">
         <v>772</v>
       </c>
@@ -23679,7 +23695,7 @@
       <c r="K45" s="151"/>
       <c r="L45" s="153"/>
     </row>
-    <row r="46" spans="1:12" ht="49.35" thickBot="1">
+    <row r="46" spans="1:12" ht="50.25" thickBot="1">
       <c r="A46" s="152" t="s">
         <v>773</v>
       </c>
@@ -23707,7 +23723,7 @@
       <c r="K46" s="151"/>
       <c r="L46" s="153"/>
     </row>
-    <row r="47" spans="1:12" ht="49.35" thickBot="1">
+    <row r="47" spans="1:12" ht="50.25" thickBot="1">
       <c r="A47" s="152" t="s">
         <v>774</v>
       </c>
@@ -23735,7 +23751,7 @@
       <c r="K47" s="151"/>
       <c r="L47" s="153"/>
     </row>
-    <row r="48" spans="1:12" ht="49.35" thickBot="1">
+    <row r="48" spans="1:12" ht="50.25" thickBot="1">
       <c r="A48" s="152" t="s">
         <v>775</v>
       </c>
@@ -23763,7 +23779,7 @@
       <c r="K48" s="151"/>
       <c r="L48" s="153"/>
     </row>
-    <row r="49" spans="1:12" ht="49.35" thickBot="1">
+    <row r="49" spans="1:12" ht="50.25" thickBot="1">
       <c r="A49" s="152" t="s">
         <v>776</v>
       </c>
@@ -23791,7 +23807,7 @@
       <c r="K49" s="151"/>
       <c r="L49" s="153"/>
     </row>
-    <row r="50" spans="1:12" ht="49.35" thickBot="1">
+    <row r="50" spans="1:12" ht="50.25" thickBot="1">
       <c r="A50" s="152" t="s">
         <v>777</v>
       </c>
@@ -23819,7 +23835,7 @@
       <c r="K50" s="151"/>
       <c r="L50" s="153"/>
     </row>
-    <row r="51" spans="1:12" ht="49.35" thickBot="1">
+    <row r="51" spans="1:12" ht="50.25" thickBot="1">
       <c r="A51" s="152" t="s">
         <v>778</v>
       </c>
@@ -23847,7 +23863,7 @@
       <c r="K51" s="151"/>
       <c r="L51" s="153"/>
     </row>
-    <row r="52" spans="1:12" ht="49.35" thickBot="1">
+    <row r="52" spans="1:12" ht="50.25" thickBot="1">
       <c r="A52" s="152" t="s">
         <v>779</v>
       </c>
@@ -23875,7 +23891,7 @@
       <c r="K52" s="151"/>
       <c r="L52" s="153"/>
     </row>
-    <row r="53" spans="1:12" ht="33" thickBot="1">
+    <row r="53" spans="1:12" ht="33.75" thickBot="1">
       <c r="A53" s="152" t="s">
         <v>780</v>
       </c>
@@ -23903,7 +23919,7 @@
       <c r="K53" s="151"/>
       <c r="L53" s="153"/>
     </row>
-    <row r="54" spans="1:12" ht="33" thickBot="1">
+    <row r="54" spans="1:12" ht="33.75" thickBot="1">
       <c r="A54" s="152" t="s">
         <v>781</v>
       </c>
@@ -23931,7 +23947,7 @@
       <c r="K54" s="151"/>
       <c r="L54" s="153"/>
     </row>
-    <row r="55" spans="1:12" ht="49.35" thickBot="1">
+    <row r="55" spans="1:12" ht="50.25" thickBot="1">
       <c r="A55" s="152" t="s">
         <v>782</v>
       </c>
@@ -23959,7 +23975,7 @@
       <c r="K55" s="151"/>
       <c r="L55" s="153"/>
     </row>
-    <row r="56" spans="1:12" ht="49.35" thickBot="1">
+    <row r="56" spans="1:12" ht="50.25" thickBot="1">
       <c r="A56" s="152" t="s">
         <v>783</v>
       </c>
@@ -23987,7 +24003,7 @@
       <c r="K56" s="151"/>
       <c r="L56" s="153"/>
     </row>
-    <row r="57" spans="1:12" ht="49.35" thickBot="1">
+    <row r="57" spans="1:12" ht="50.25" thickBot="1">
       <c r="A57" s="152" t="s">
         <v>784</v>
       </c>
@@ -24015,7 +24031,7 @@
       <c r="K57" s="151"/>
       <c r="L57" s="153"/>
     </row>
-    <row r="58" spans="1:12" ht="49.35" thickBot="1">
+    <row r="58" spans="1:12" ht="50.25" thickBot="1">
       <c r="A58" s="152" t="s">
         <v>785</v>
       </c>
@@ -24043,7 +24059,7 @@
       <c r="K58" s="151"/>
       <c r="L58" s="153"/>
     </row>
-    <row r="59" spans="1:12" ht="49.35" thickBot="1">
+    <row r="59" spans="1:12" ht="50.25" thickBot="1">
       <c r="A59" s="152" t="s">
         <v>786</v>
       </c>
@@ -24071,7 +24087,7 @@
       <c r="K59" s="151"/>
       <c r="L59" s="153"/>
     </row>
-    <row r="60" spans="1:12" ht="49.35" thickBot="1">
+    <row r="60" spans="1:12" ht="50.25" thickBot="1">
       <c r="A60" s="152" t="s">
         <v>787</v>
       </c>
@@ -24099,7 +24115,7 @@
       <c r="K60" s="151"/>
       <c r="L60" s="153"/>
     </row>
-    <row r="61" spans="1:12" ht="49.35" thickBot="1">
+    <row r="61" spans="1:12" ht="50.25" thickBot="1">
       <c r="A61" s="152" t="s">
         <v>788</v>
       </c>
@@ -24127,7 +24143,7 @@
       <c r="K61" s="151"/>
       <c r="L61" s="153"/>
     </row>
-    <row r="62" spans="1:12" ht="49.35" thickBot="1">
+    <row r="62" spans="1:12" ht="50.25" thickBot="1">
       <c r="A62" s="152" t="s">
         <v>789</v>
       </c>
@@ -24155,7 +24171,7 @@
       <c r="K62" s="151"/>
       <c r="L62" s="153"/>
     </row>
-    <row r="63" spans="1:12" ht="49.35" thickBot="1">
+    <row r="63" spans="1:12" ht="50.25" thickBot="1">
       <c r="A63" s="152" t="s">
         <v>818</v>
       </c>
@@ -24183,7 +24199,7 @@
       <c r="K63" s="151"/>
       <c r="L63" s="153"/>
     </row>
-    <row r="64" spans="1:12" ht="33" thickBot="1">
+    <row r="64" spans="1:12" ht="33.75" thickBot="1">
       <c r="A64" s="152" t="s">
         <v>819</v>
       </c>
@@ -24211,7 +24227,7 @@
       <c r="K64" s="151"/>
       <c r="L64" s="153"/>
     </row>
-    <row r="65" spans="1:12" ht="49.35" thickBot="1">
+    <row r="65" spans="1:12" ht="50.25" thickBot="1">
       <c r="A65" s="152" t="s">
         <v>820</v>
       </c>
@@ -24239,7 +24255,7 @@
       <c r="K65" s="151"/>
       <c r="L65" s="153"/>
     </row>
-    <row r="66" spans="1:12" ht="49.35" thickBot="1">
+    <row r="66" spans="1:12" ht="50.25" thickBot="1">
       <c r="A66" s="152" t="s">
         <v>821</v>
       </c>
@@ -24268,20 +24284,20 @@
       <c r="L66" s="153"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="195" t="s">
+      <c r="A67" s="197" t="s">
         <v>762</v>
       </c>
-      <c r="B67" s="196"/>
-      <c r="C67" s="196"/>
-      <c r="D67" s="196"/>
-      <c r="E67" s="196"/>
-      <c r="F67" s="196"/>
-      <c r="G67" s="196"/>
-      <c r="H67" s="196"/>
-      <c r="I67" s="196"/>
-      <c r="J67" s="196"/>
-      <c r="K67" s="196"/>
-      <c r="L67" s="197"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="198"/>
+      <c r="G67" s="198"/>
+      <c r="H67" s="198"/>
+      <c r="I67" s="198"/>
+      <c r="J67" s="198"/>
+      <c r="K67" s="198"/>
+      <c r="L67" s="199"/>
     </row>
     <row r="68" spans="1:12" ht="60.75" customHeight="1" thickBot="1">
       <c r="A68" s="31" t="s">
@@ -25539,6 +25555,12 @@
     <row r="1031" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A32:A34"/>
@@ -25546,12 +25568,6 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
